--- a/01_基本設計書/20200220リリース/SC-K12A_進捗管理詳細.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K12A_進捗管理詳細.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548D071-A077-409D-A4E7-036A5E76223A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158D2E72-FFBB-4B32-95E1-079655A86EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -1421,13 +1421,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>成形</t>
-    <rPh sb="0" eb="2">
-      <t>セイケイ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>組立</t>
     <rPh sb="0" eb="2">
       <t>クミタテ</t>
@@ -2644,28 +2637,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>工程が成形の場合、判定別一覧項目の表示状態</t>
-    <rPh sb="0" eb="2">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>工程が組立の場合、判定別一覧項目の表示状態</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
@@ -2759,6 +2730,42 @@
       <t>ショウジュン</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>工程が成形、成形仕上の場合、判定別一覧項目の表示状態</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>セイケイシアゲ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>成形
+成形仕上</t>
+    <rPh sb="0" eb="2">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>セイケイシアゲ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
   </si>
 </sst>
 </file>
@@ -3913,7 +3920,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3925,7 +3932,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9074,11 +9081,11 @@
     <row r="39" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G39" s="9"/>
       <c r="I39" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M39" s="9"/>
       <c r="O39" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
@@ -9094,11 +9101,11 @@
       <c r="AF39" s="9"/>
       <c r="AG39" s="9"/>
       <c r="AH39" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AL39" s="9"/>
       <c r="AN39" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AQ39" s="11"/>
       <c r="AR39" s="11"/>
@@ -9116,7 +9123,7 @@
     <row r="40" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G40" s="9"/>
       <c r="I40" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M40" s="9"/>
       <c r="O40" s="11"/>
@@ -9135,11 +9142,11 @@
       <c r="AF40" s="9"/>
       <c r="AG40" s="9"/>
       <c r="AH40" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AL40" s="9"/>
       <c r="AN40" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AQ40" s="11"/>
       <c r="AR40" s="11"/>
@@ -9471,7 +9478,7 @@
       <c r="I47" s="86"/>
       <c r="J47" s="87"/>
       <c r="K47" s="82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L47" s="86"/>
       <c r="M47" s="86"/>
@@ -9503,7 +9510,7 @@
       <c r="AK47" s="208"/>
       <c r="AL47" s="209"/>
       <c r="AM47" s="83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN47" s="84"/>
       <c r="AO47" s="84"/>
@@ -9549,7 +9556,7 @@
       <c r="I48" s="86"/>
       <c r="J48" s="93"/>
       <c r="K48" s="92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L48" s="86"/>
       <c r="M48" s="86"/>
@@ -9581,7 +9588,7 @@
       <c r="AK48" s="208"/>
       <c r="AL48" s="209"/>
       <c r="AM48" s="83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN48" s="84"/>
       <c r="AO48" s="84"/>
@@ -9627,7 +9634,7 @@
       <c r="I49" s="86"/>
       <c r="J49" s="93"/>
       <c r="K49" s="92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L49" s="86"/>
       <c r="M49" s="86"/>
@@ -9659,7 +9666,7 @@
       <c r="AK49" s="208"/>
       <c r="AL49" s="209"/>
       <c r="AM49" s="83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN49" s="84"/>
       <c r="AO49" s="84"/>
@@ -9705,7 +9712,7 @@
       <c r="I50" s="86"/>
       <c r="J50" s="110"/>
       <c r="K50" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L50" s="86"/>
       <c r="M50" s="86"/>
@@ -9783,7 +9790,7 @@
       <c r="I51" s="86"/>
       <c r="J51" s="110"/>
       <c r="K51" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L51" s="86"/>
       <c r="M51" s="86"/>
@@ -9861,7 +9868,7 @@
       <c r="I52" s="86"/>
       <c r="J52" s="110"/>
       <c r="K52" s="109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L52" s="86"/>
       <c r="M52" s="86"/>
@@ -9939,7 +9946,7 @@
       <c r="I53" s="86"/>
       <c r="J53" s="110"/>
       <c r="K53" s="109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L53" s="86"/>
       <c r="M53" s="86"/>
@@ -10767,7 +10774,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="147" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>39</v>
@@ -10800,7 +10807,7 @@
         <v>34</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -10945,13 +10952,13 @@
         <v>152</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" s="149" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="147" t="s">
         <v>303</v>
-      </c>
-      <c r="H17" s="147" t="s">
-        <v>304</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>34</v>
@@ -10975,7 +10982,7 @@
         <v>34</v>
       </c>
       <c r="P17" s="148" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="8" t="s">
         <v>33</v>
@@ -10994,13 +11001,13 @@
         <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G18" s="149" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="147" t="s">
         <v>303</v>
-      </c>
-      <c r="H18" s="147" t="s">
-        <v>304</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>34</v>
@@ -11024,7 +11031,7 @@
         <v>34</v>
       </c>
       <c r="P18" s="148" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>33</v>
@@ -11043,13 +11050,13 @@
         <v>154</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19" s="149" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="147" t="s">
         <v>303</v>
-      </c>
-      <c r="H19" s="147" t="s">
-        <v>304</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>34</v>
@@ -11073,10 +11080,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="148" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -11245,10 +11252,10 @@
         <v>57</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>44</v>
@@ -11278,7 +11285,7 @@
         <v>34</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>34</v>
@@ -11297,7 +11304,7 @@
         <v>158</v>
       </c>
       <c r="F28" s="147" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>44</v>
@@ -11311,8 +11318,8 @@
       <c r="J28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>380</v>
+      <c r="K28" s="147" t="s">
+        <v>378</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>34</v>
@@ -11330,7 +11337,7 @@
         <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11376,7 +11383,7 @@
         <v>34</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>34</v>
@@ -11392,10 +11399,10 @@
         <v>60</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>44</v>
@@ -11425,7 +11432,7 @@
         <v>34</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>34</v>
@@ -11438,13 +11445,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>44</v>
@@ -11474,7 +11481,7 @@
         <v>34</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>34</v>
@@ -11487,13 +11494,13 @@
         <v>7</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>44</v>
@@ -11523,7 +11530,7 @@
         <v>34</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>34</v>
@@ -11536,13 +11543,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G33" s="43" t="s">
         <v>44</v>
@@ -11572,7 +11579,7 @@
         <v>34</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>34</v>
@@ -11585,13 +11592,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>44</v>
@@ -11621,7 +11628,7 @@
         <v>34</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>34</v>
@@ -11634,13 +11641,13 @@
         <v>10</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>44</v>
@@ -11670,7 +11677,7 @@
         <v>34</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>34</v>
@@ -11683,13 +11690,13 @@
         <v>11</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G36" s="43" t="s">
         <v>44</v>
@@ -11719,7 +11726,7 @@
         <v>34</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>34</v>
@@ -11732,13 +11739,13 @@
         <v>12</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>44</v>
@@ -11768,7 +11775,7 @@
         <v>34</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>34</v>
@@ -11781,13 +11788,13 @@
         <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G38" s="43" t="s">
         <v>44</v>
@@ -11828,7 +11835,7 @@
     </row>
     <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B40" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11905,10 +11912,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>307</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>43</v>
@@ -11951,13 +11958,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="F44" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>44</v>
@@ -11975,13 +11982,13 @@
         <v>34</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>34</v>
@@ -11997,13 +12004,13 @@
         <v>3</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="F45" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>44</v>
@@ -12017,8 +12024,8 @@
       <c r="J45" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>380</v>
+      <c r="K45" s="147" t="s">
+        <v>378</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>34</v>
@@ -12027,7 +12034,7 @@
         <v>33</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>34</v>
@@ -12036,7 +12043,7 @@
         <v>34</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -12686,15 +12693,15 @@
         <v>134</v>
       </c>
       <c r="Q12" s="225" t="s">
+        <v>393</v>
+      </c>
+      <c r="R12" s="226"/>
+      <c r="S12" s="229" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="226"/>
+      <c r="U12" s="229" t="s">
         <v>180</v>
-      </c>
-      <c r="R12" s="226"/>
-      <c r="S12" s="225" t="s">
-        <v>179</v>
-      </c>
-      <c r="T12" s="226"/>
-      <c r="U12" s="225" t="s">
-        <v>181</v>
       </c>
       <c r="V12" s="226"/>
       <c r="W12" s="23"/>
@@ -12788,7 +12795,7 @@
       <c r="K14" s="71"/>
       <c r="L14" s="23"/>
       <c r="M14" s="120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N14" s="121"/>
       <c r="O14" s="121"/>
@@ -12845,7 +12852,7 @@
       <c r="K15" s="71"/>
       <c r="L15" s="23"/>
       <c r="M15" s="120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N15" s="121"/>
       <c r="O15" s="121"/>
@@ -12902,7 +12909,7 @@
       <c r="K16" s="71"/>
       <c r="L16" s="23"/>
       <c r="M16" s="105" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N16" s="106"/>
       <c r="O16" s="106"/>
@@ -12959,7 +12966,7 @@
       <c r="K17" s="71"/>
       <c r="L17" s="23"/>
       <c r="M17" s="105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N17" s="106"/>
       <c r="O17" s="106"/>
@@ -13415,7 +13422,7 @@
       <c r="K25" s="71"/>
       <c r="L25" s="23"/>
       <c r="M25" s="105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N25" s="106"/>
       <c r="O25" s="106"/>
@@ -13472,7 +13479,7 @@
       <c r="K26" s="71"/>
       <c r="L26" s="23"/>
       <c r="M26" s="120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N26" s="121"/>
       <c r="O26" s="121"/>
@@ -13572,7 +13579,7 @@
       <c r="G28" s="70"/>
       <c r="K28" s="71"/>
       <c r="L28" s="16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AV28" s="71"/>
     </row>
@@ -13583,7 +13590,7 @@
       <c r="G29" s="70"/>
       <c r="K29" s="71"/>
       <c r="M29" s="16" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AV29" s="71"/>
     </row>
@@ -13810,7 +13817,7 @@
       <c r="K34" s="23"/>
       <c r="L34" s="70"/>
       <c r="M34" s="126" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N34" s="126"/>
       <c r="O34" s="126"/>
@@ -13862,7 +13869,7 @@
       <c r="L35" s="23"/>
       <c r="M35" s="129"/>
       <c r="N35" s="125" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O35" s="125"/>
       <c r="P35" s="125"/>
@@ -13913,7 +13920,7 @@
       <c r="M36" s="129"/>
       <c r="N36" s="129"/>
       <c r="O36" s="125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P36" s="125"/>
       <c r="Q36" s="125"/>
@@ -13963,7 +13970,7 @@
       <c r="M37" s="129"/>
       <c r="N37" s="129"/>
       <c r="O37" s="125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P37" s="125"/>
       <c r="Q37" s="125"/>
@@ -14013,7 +14020,7 @@
       <c r="M38" s="129"/>
       <c r="N38" s="129"/>
       <c r="O38" s="125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P38" s="125"/>
       <c r="Q38" s="125"/>
@@ -14063,7 +14070,7 @@
       <c r="M39" s="129"/>
       <c r="N39" s="129"/>
       <c r="O39" s="125" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P39" s="125"/>
       <c r="Q39" s="125"/>
@@ -14113,7 +14120,7 @@
       <c r="M40" s="129"/>
       <c r="N40" s="129"/>
       <c r="O40" s="125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P40" s="125"/>
       <c r="Q40" s="125"/>
@@ -14163,7 +14170,7 @@
       <c r="M41" s="129"/>
       <c r="N41" s="129"/>
       <c r="O41" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P41" s="125"/>
       <c r="Q41" s="125"/>
@@ -14213,7 +14220,7 @@
       <c r="M42" s="129"/>
       <c r="N42" s="129"/>
       <c r="O42" s="125" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P42" s="125"/>
       <c r="Q42" s="125"/>
@@ -14263,7 +14270,7 @@
       <c r="M43" s="129"/>
       <c r="N43" s="129"/>
       <c r="O43" s="125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P43" s="125"/>
       <c r="Q43" s="125"/>
@@ -14360,7 +14367,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="129"/>
       <c r="N45" s="125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O45" s="125"/>
       <c r="P45" s="125"/>
@@ -14411,7 +14418,7 @@
       <c r="M46" s="129"/>
       <c r="N46" s="129"/>
       <c r="O46" s="125" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P46" s="125"/>
       <c r="Q46" s="125"/>
@@ -14461,7 +14468,7 @@
       <c r="M47" s="129"/>
       <c r="N47" s="129"/>
       <c r="O47" s="125" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P47" s="125"/>
       <c r="Q47" s="125"/>
@@ -14512,7 +14519,7 @@
       <c r="N48" s="129"/>
       <c r="O48" s="125"/>
       <c r="P48" s="125" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q48" s="125"/>
       <c r="R48" s="125"/>
@@ -14527,7 +14534,7 @@
         <v>116</v>
       </c>
       <c r="AA48" s="126" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB48" s="126"/>
       <c r="AC48" s="126"/>
@@ -14566,7 +14573,7 @@
       <c r="N49" s="129"/>
       <c r="O49" s="125"/>
       <c r="P49" s="125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q49" s="125"/>
       <c r="R49" s="125"/>
@@ -14581,7 +14588,7 @@
         <v>116</v>
       </c>
       <c r="AA49" s="126" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB49" s="126"/>
       <c r="AC49" s="126"/>
@@ -14620,7 +14627,7 @@
       <c r="N50" s="129"/>
       <c r="O50" s="125"/>
       <c r="P50" s="125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q50" s="125"/>
       <c r="R50" s="125"/>
@@ -14635,7 +14642,7 @@
         <v>116</v>
       </c>
       <c r="AA50" s="126" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB50" s="126"/>
       <c r="AC50" s="126"/>
@@ -14674,7 +14681,7 @@
       <c r="N51" s="129"/>
       <c r="O51" s="125"/>
       <c r="P51" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q51" s="125"/>
       <c r="R51" s="125"/>
@@ -14689,7 +14696,7 @@
         <v>116</v>
       </c>
       <c r="AA51" s="126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB51" s="126"/>
       <c r="AC51" s="126"/>
@@ -14728,7 +14735,7 @@
       <c r="N52" s="129"/>
       <c r="O52" s="125"/>
       <c r="P52" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q52" s="125"/>
       <c r="R52" s="125"/>
@@ -14743,7 +14750,7 @@
         <v>116</v>
       </c>
       <c r="AA52" s="126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB52" s="126"/>
       <c r="AC52" s="126"/>
@@ -14781,7 +14788,7 @@
       <c r="M53" s="129"/>
       <c r="N53" s="129"/>
       <c r="O53" s="125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P53" s="125"/>
       <c r="Q53" s="125"/>
@@ -14832,7 +14839,7 @@
       <c r="N54" s="129"/>
       <c r="O54" s="125"/>
       <c r="P54" s="125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q54" s="125"/>
       <c r="R54" s="125"/>
@@ -14847,7 +14854,7 @@
         <v>116</v>
       </c>
       <c r="AA54" s="126" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB54" s="126"/>
       <c r="AC54" s="126"/>
@@ -14886,7 +14893,7 @@
       <c r="N55" s="129"/>
       <c r="O55" s="125"/>
       <c r="P55" s="125" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q55" s="125"/>
       <c r="R55" s="125"/>
@@ -14901,7 +14908,7 @@
         <v>116</v>
       </c>
       <c r="AA55" s="126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB55" s="126"/>
       <c r="AC55" s="126"/>
@@ -14939,7 +14946,7 @@
       <c r="M56" s="129"/>
       <c r="N56" s="129"/>
       <c r="O56" s="125" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P56" s="125"/>
       <c r="Q56" s="125"/>
@@ -14990,7 +14997,7 @@
       <c r="N57" s="129"/>
       <c r="O57" s="125"/>
       <c r="P57" s="125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q57" s="125"/>
       <c r="R57" s="125"/>
@@ -15005,7 +15012,7 @@
         <v>116</v>
       </c>
       <c r="AA57" s="126" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB57" s="126"/>
       <c r="AC57" s="126"/>
@@ -15044,7 +15051,7 @@
       <c r="N58" s="129"/>
       <c r="O58" s="125"/>
       <c r="P58" s="125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q58" s="125"/>
       <c r="R58" s="125"/>
@@ -15059,7 +15066,7 @@
         <v>116</v>
       </c>
       <c r="AA58" s="126" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB58" s="126"/>
       <c r="AC58" s="126"/>
@@ -15097,7 +15104,7 @@
       <c r="M59" s="129"/>
       <c r="N59" s="129"/>
       <c r="O59" s="125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P59" s="125"/>
       <c r="Q59" s="125"/>
@@ -15148,7 +15155,7 @@
       <c r="N60" s="129"/>
       <c r="O60" s="125"/>
       <c r="P60" s="125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q60" s="125"/>
       <c r="R60" s="125"/>
@@ -15163,7 +15170,7 @@
         <v>116</v>
       </c>
       <c r="AA60" s="126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB60" s="126"/>
       <c r="AC60" s="126"/>
@@ -15248,7 +15255,7 @@
       <c r="L62" s="23"/>
       <c r="M62" s="129"/>
       <c r="N62" s="127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O62" s="127"/>
       <c r="P62" s="127"/>
@@ -15299,7 +15306,7 @@
       <c r="M63" s="127"/>
       <c r="N63" s="129"/>
       <c r="O63" s="127" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P63" s="127"/>
       <c r="Q63" s="127"/>
@@ -15315,7 +15322,7 @@
         <v>116</v>
       </c>
       <c r="AA63" s="127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB63" s="127"/>
       <c r="AC63" s="127"/>
@@ -15353,7 +15360,7 @@
       <c r="M64" s="127"/>
       <c r="N64" s="129"/>
       <c r="O64" s="127" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P64" s="127"/>
       <c r="Q64" s="127"/>
@@ -15369,7 +15376,7 @@
         <v>116</v>
       </c>
       <c r="AA64" s="127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB64" s="127"/>
       <c r="AC64" s="127"/>
@@ -15407,7 +15414,7 @@
       <c r="M65" s="129"/>
       <c r="N65" s="129"/>
       <c r="O65" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P65" s="127"/>
       <c r="Q65" s="127"/>
@@ -15423,7 +15430,7 @@
         <v>116</v>
       </c>
       <c r="AA65" s="135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB65" s="127"/>
       <c r="AC65" s="127"/>
@@ -15506,7 +15513,7 @@
       <c r="L67" s="23"/>
       <c r="M67" s="129"/>
       <c r="N67" s="127" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="129"/>
       <c r="P67" s="129"/>
@@ -15555,7 +15562,7 @@
       <c r="M68" s="129"/>
       <c r="N68" s="129"/>
       <c r="O68" s="129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P68" s="129"/>
       <c r="Q68" s="129"/>
@@ -15603,7 +15610,7 @@
       <c r="M69" s="129"/>
       <c r="N69" s="129"/>
       <c r="O69" s="129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P69" s="129"/>
       <c r="Q69" s="129"/>
@@ -15651,7 +15658,7 @@
       <c r="M70" s="129"/>
       <c r="N70" s="129"/>
       <c r="O70" s="129" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P70" s="129"/>
       <c r="Q70" s="129"/>
@@ -15699,7 +15706,7 @@
       <c r="M71" s="129"/>
       <c r="N71" s="129"/>
       <c r="O71" s="129" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P71" s="129"/>
       <c r="Q71" s="129"/>
@@ -15747,7 +15754,7 @@
       <c r="M72" s="129"/>
       <c r="N72" s="129"/>
       <c r="O72" s="129" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P72" s="129"/>
       <c r="Q72" s="129"/>
@@ -15795,7 +15802,7 @@
       <c r="M73" s="129"/>
       <c r="N73" s="129"/>
       <c r="O73" s="129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P73" s="129"/>
       <c r="Q73" s="129"/>
@@ -15843,7 +15850,7 @@
       <c r="M74" s="129"/>
       <c r="N74" s="129"/>
       <c r="O74" s="129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P74" s="129"/>
       <c r="Q74" s="129"/>
@@ -15985,7 +15992,7 @@
       <c r="M77" s="129"/>
       <c r="N77" s="129"/>
       <c r="O77" s="129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P77" s="129"/>
       <c r="Q77" s="129"/>
@@ -16033,7 +16040,7 @@
       <c r="M78" s="129"/>
       <c r="N78" s="129"/>
       <c r="O78" s="129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P78" s="129"/>
       <c r="Q78" s="129"/>
@@ -16125,7 +16132,7 @@
       <c r="K80" s="23"/>
       <c r="L80" s="70"/>
       <c r="M80" s="136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N80" s="136"/>
       <c r="O80" s="136"/>
@@ -16177,7 +16184,7 @@
       <c r="L81" s="23"/>
       <c r="M81" s="137"/>
       <c r="N81" s="138" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O81" s="138"/>
       <c r="P81" s="138"/>
@@ -16228,7 +16235,7 @@
       <c r="M82" s="137"/>
       <c r="N82" s="137"/>
       <c r="O82" s="138" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P82" s="138"/>
       <c r="Q82" s="138"/>
@@ -16278,7 +16285,7 @@
       <c r="M83" s="137"/>
       <c r="N83" s="137"/>
       <c r="O83" s="138" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P83" s="138"/>
       <c r="Q83" s="138"/>
@@ -16328,7 +16335,7 @@
       <c r="M84" s="137"/>
       <c r="N84" s="137"/>
       <c r="O84" s="138" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P84" s="138"/>
       <c r="Q84" s="138"/>
@@ -16378,7 +16385,7 @@
       <c r="M85" s="137"/>
       <c r="N85" s="137"/>
       <c r="O85" s="138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P85" s="138"/>
       <c r="Q85" s="138"/>
@@ -16475,7 +16482,7 @@
       <c r="L87" s="23"/>
       <c r="M87" s="137"/>
       <c r="N87" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O87" s="138"/>
       <c r="P87" s="138"/>
@@ -16526,7 +16533,7 @@
       <c r="M88" s="137"/>
       <c r="N88" s="137"/>
       <c r="O88" s="138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P88" s="138"/>
       <c r="Q88" s="138"/>
@@ -16623,7 +16630,7 @@
       <c r="L90" s="23"/>
       <c r="M90" s="137"/>
       <c r="N90" s="139" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O90" s="139"/>
       <c r="P90" s="139"/>
@@ -16674,7 +16681,7 @@
       <c r="M91" s="139"/>
       <c r="N91" s="137"/>
       <c r="O91" s="139" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P91" s="139"/>
       <c r="Q91" s="139"/>
@@ -16690,7 +16697,7 @@
         <v>116</v>
       </c>
       <c r="AA91" s="139" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB91" s="139"/>
       <c r="AC91" s="139"/>
@@ -16728,7 +16735,7 @@
       <c r="M92" s="139"/>
       <c r="N92" s="137"/>
       <c r="O92" s="139" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P92" s="139"/>
       <c r="Q92" s="139"/>
@@ -16744,7 +16751,7 @@
         <v>116</v>
       </c>
       <c r="AA92" s="139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB92" s="139"/>
       <c r="AC92" s="139"/>
@@ -16782,7 +16789,7 @@
       <c r="M93" s="137"/>
       <c r="N93" s="137"/>
       <c r="O93" s="143" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P93" s="143"/>
       <c r="Q93" s="143"/>
@@ -16798,7 +16805,7 @@
         <v>116</v>
       </c>
       <c r="AA93" s="144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB93" s="143"/>
       <c r="AC93" s="143"/>
@@ -16881,7 +16888,7 @@
       <c r="L95" s="23"/>
       <c r="M95" s="137"/>
       <c r="N95" s="139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O95" s="137"/>
       <c r="P95" s="137"/>
@@ -16930,7 +16937,7 @@
       <c r="M96" s="137"/>
       <c r="N96" s="137"/>
       <c r="O96" s="137" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P96" s="137"/>
       <c r="Q96" s="137"/>
@@ -16978,7 +16985,7 @@
       <c r="M97" s="137"/>
       <c r="N97" s="137"/>
       <c r="O97" s="137" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P97" s="137"/>
       <c r="Q97" s="137"/>
@@ -17026,7 +17033,7 @@
       <c r="M98" s="137"/>
       <c r="N98" s="137"/>
       <c r="O98" s="137" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P98" s="137"/>
       <c r="Q98" s="137"/>
@@ -17168,7 +17175,7 @@
       <c r="M101" s="137"/>
       <c r="N101" s="137"/>
       <c r="O101" s="137" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P101" s="137"/>
       <c r="Q101" s="137"/>
@@ -17216,7 +17223,7 @@
       <c r="M102" s="137"/>
       <c r="N102" s="137"/>
       <c r="O102" s="137" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P102" s="137"/>
       <c r="Q102" s="137"/>
@@ -17311,7 +17318,7 @@
       <c r="K104" s="23"/>
       <c r="L104" s="70"/>
       <c r="M104" s="136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N104" s="136"/>
       <c r="O104" s="136"/>
@@ -17363,7 +17370,7 @@
       <c r="L105" s="23"/>
       <c r="M105" s="137"/>
       <c r="N105" s="138" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O105" s="138"/>
       <c r="P105" s="138"/>
@@ -17414,7 +17421,7 @@
       <c r="M106" s="137"/>
       <c r="N106" s="137"/>
       <c r="O106" s="138" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P106" s="138"/>
       <c r="Q106" s="138"/>
@@ -17464,7 +17471,7 @@
       <c r="M107" s="137"/>
       <c r="N107" s="137"/>
       <c r="O107" s="138" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P107" s="138"/>
       <c r="Q107" s="138"/>
@@ -17514,7 +17521,7 @@
       <c r="M108" s="137"/>
       <c r="N108" s="137"/>
       <c r="O108" s="138" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P108" s="138"/>
       <c r="Q108" s="138"/>
@@ -17564,7 +17571,7 @@
       <c r="M109" s="137"/>
       <c r="N109" s="137"/>
       <c r="O109" s="138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P109" s="138"/>
       <c r="Q109" s="138"/>
@@ -17661,7 +17668,7 @@
       <c r="L111" s="23"/>
       <c r="M111" s="137"/>
       <c r="N111" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O111" s="138"/>
       <c r="P111" s="138"/>
@@ -17712,7 +17719,7 @@
       <c r="M112" s="137"/>
       <c r="N112" s="137"/>
       <c r="O112" s="138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P112" s="138"/>
       <c r="Q112" s="138"/>
@@ -17809,7 +17816,7 @@
       <c r="L114" s="23"/>
       <c r="M114" s="137"/>
       <c r="N114" s="139" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O114" s="139"/>
       <c r="P114" s="139"/>
@@ -17860,7 +17867,7 @@
       <c r="M115" s="139"/>
       <c r="N115" s="137"/>
       <c r="O115" s="139" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P115" s="139"/>
       <c r="Q115" s="139"/>
@@ -17876,7 +17883,7 @@
         <v>116</v>
       </c>
       <c r="AA115" s="139" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB115" s="139"/>
       <c r="AC115" s="139"/>
@@ -17914,7 +17921,7 @@
       <c r="M116" s="139"/>
       <c r="N116" s="137"/>
       <c r="O116" s="139" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P116" s="139"/>
       <c r="Q116" s="139"/>
@@ -17930,7 +17937,7 @@
         <v>116</v>
       </c>
       <c r="AA116" s="139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB116" s="139"/>
       <c r="AC116" s="139"/>
@@ -17968,7 +17975,7 @@
       <c r="M117" s="137"/>
       <c r="N117" s="137"/>
       <c r="O117" s="143" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P117" s="143"/>
       <c r="Q117" s="143"/>
@@ -17984,7 +17991,7 @@
         <v>116</v>
       </c>
       <c r="AA117" s="144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB117" s="143"/>
       <c r="AC117" s="143"/>
@@ -18067,7 +18074,7 @@
       <c r="L119" s="23"/>
       <c r="M119" s="137"/>
       <c r="N119" s="139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O119" s="137"/>
       <c r="P119" s="137"/>
@@ -18116,7 +18123,7 @@
       <c r="M120" s="137"/>
       <c r="N120" s="137"/>
       <c r="O120" s="137" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P120" s="137"/>
       <c r="Q120" s="137"/>
@@ -18164,7 +18171,7 @@
       <c r="M121" s="137"/>
       <c r="N121" s="137"/>
       <c r="O121" s="137" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P121" s="137"/>
       <c r="Q121" s="137"/>
@@ -18212,7 +18219,7 @@
       <c r="M122" s="137"/>
       <c r="N122" s="137"/>
       <c r="O122" s="137" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P122" s="137"/>
       <c r="Q122" s="137"/>
@@ -18354,7 +18361,7 @@
       <c r="M125" s="137"/>
       <c r="N125" s="137"/>
       <c r="O125" s="137" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P125" s="137"/>
       <c r="Q125" s="137"/>
@@ -18402,7 +18409,7 @@
       <c r="M126" s="137"/>
       <c r="N126" s="137"/>
       <c r="O126" s="137" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P126" s="137"/>
       <c r="Q126" s="137"/>
@@ -18497,7 +18504,7 @@
       <c r="K128" s="23"/>
       <c r="L128" s="70"/>
       <c r="M128" s="136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N128" s="136"/>
       <c r="O128" s="136"/>
@@ -18549,7 +18556,7 @@
       <c r="L129" s="23"/>
       <c r="M129" s="137"/>
       <c r="N129" s="138" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O129" s="138"/>
       <c r="P129" s="138"/>
@@ -18600,7 +18607,7 @@
       <c r="M130" s="137"/>
       <c r="N130" s="137"/>
       <c r="O130" s="138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P130" s="138"/>
       <c r="Q130" s="138"/>
@@ -18650,7 +18657,7 @@
       <c r="M131" s="137"/>
       <c r="N131" s="137"/>
       <c r="O131" s="138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P131" s="138"/>
       <c r="Q131" s="138"/>
@@ -18700,7 +18707,7 @@
       <c r="M132" s="137"/>
       <c r="N132" s="137"/>
       <c r="O132" s="138" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P132" s="138"/>
       <c r="Q132" s="138"/>
@@ -18750,7 +18757,7 @@
       <c r="M133" s="137"/>
       <c r="N133" s="137"/>
       <c r="O133" s="138" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P133" s="138"/>
       <c r="Q133" s="138"/>
@@ -18847,7 +18854,7 @@
       <c r="L135" s="23"/>
       <c r="M135" s="137"/>
       <c r="N135" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O135" s="138"/>
       <c r="P135" s="138"/>
@@ -18898,7 +18905,7 @@
       <c r="M136" s="137"/>
       <c r="N136" s="137"/>
       <c r="O136" s="138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P136" s="138"/>
       <c r="Q136" s="138"/>
@@ -18995,7 +19002,7 @@
       <c r="L138" s="23"/>
       <c r="M138" s="137"/>
       <c r="N138" s="139" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O138" s="139"/>
       <c r="P138" s="139"/>
@@ -19046,7 +19053,7 @@
       <c r="M139" s="139"/>
       <c r="N139" s="137"/>
       <c r="O139" s="139" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P139" s="139"/>
       <c r="Q139" s="139"/>
@@ -19062,7 +19069,7 @@
         <v>116</v>
       </c>
       <c r="AA139" s="139" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB139" s="139"/>
       <c r="AC139" s="139"/>
@@ -19100,7 +19107,7 @@
       <c r="M140" s="139"/>
       <c r="N140" s="137"/>
       <c r="O140" s="139" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P140" s="139"/>
       <c r="Q140" s="139"/>
@@ -19116,7 +19123,7 @@
         <v>116</v>
       </c>
       <c r="AA140" s="139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB140" s="139"/>
       <c r="AC140" s="139"/>
@@ -19154,7 +19161,7 @@
       <c r="M141" s="137"/>
       <c r="N141" s="137"/>
       <c r="O141" s="141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P141" s="141"/>
       <c r="Q141" s="141"/>
@@ -19170,7 +19177,7 @@
         <v>116</v>
       </c>
       <c r="AA141" s="142" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB141" s="141"/>
       <c r="AC141" s="141"/>
@@ -19253,7 +19260,7 @@
       <c r="L143" s="23"/>
       <c r="M143" s="137"/>
       <c r="N143" s="139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O143" s="137"/>
       <c r="P143" s="137"/>
@@ -19302,7 +19309,7 @@
       <c r="M144" s="137"/>
       <c r="N144" s="137"/>
       <c r="O144" s="137" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P144" s="137"/>
       <c r="Q144" s="137"/>
@@ -19350,7 +19357,7 @@
       <c r="M145" s="137"/>
       <c r="N145" s="137"/>
       <c r="O145" s="137" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P145" s="137"/>
       <c r="Q145" s="137"/>
@@ -19398,7 +19405,7 @@
       <c r="M146" s="137"/>
       <c r="N146" s="137"/>
       <c r="O146" s="137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P146" s="137"/>
       <c r="Q146" s="137"/>
@@ -19540,7 +19547,7 @@
       <c r="M149" s="137"/>
       <c r="N149" s="137"/>
       <c r="O149" s="137" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P149" s="137"/>
       <c r="Q149" s="137"/>
@@ -19588,7 +19595,7 @@
       <c r="M150" s="137"/>
       <c r="N150" s="137"/>
       <c r="O150" s="137" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P150" s="137"/>
       <c r="Q150" s="137"/>
@@ -19683,7 +19690,7 @@
       <c r="K152" s="23"/>
       <c r="L152" s="70"/>
       <c r="M152" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N152" s="23"/>
       <c r="O152" s="23"/>
@@ -19734,7 +19741,7 @@
       <c r="K153" s="71"/>
       <c r="L153" s="23"/>
       <c r="N153" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O153" s="95"/>
       <c r="P153" s="95"/>
@@ -19783,7 +19790,7 @@
       <c r="K154" s="71"/>
       <c r="L154" s="23"/>
       <c r="O154" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P154" s="95"/>
       <c r="Q154" s="95"/>
@@ -19831,7 +19838,7 @@
       <c r="K155" s="71"/>
       <c r="L155" s="23"/>
       <c r="O155" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P155" s="95"/>
       <c r="Q155" s="95"/>
@@ -19879,7 +19886,7 @@
       <c r="K156" s="71"/>
       <c r="L156" s="23"/>
       <c r="O156" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P156" s="95"/>
       <c r="Q156" s="95"/>
@@ -19927,7 +19934,7 @@
       <c r="K157" s="71"/>
       <c r="L157" s="23"/>
       <c r="O157" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P157" s="95"/>
       <c r="Q157" s="95"/>
@@ -19975,7 +19982,7 @@
       <c r="K158" s="71"/>
       <c r="L158" s="23"/>
       <c r="O158" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P158" s="95"/>
       <c r="Q158" s="95"/>
@@ -20023,7 +20030,7 @@
       <c r="K159" s="71"/>
       <c r="L159" s="23"/>
       <c r="O159" s="95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P159" s="95"/>
       <c r="Q159" s="95"/>
@@ -20071,7 +20078,7 @@
       <c r="K160" s="71"/>
       <c r="L160" s="23"/>
       <c r="O160" s="95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P160" s="95"/>
       <c r="Q160" s="95"/>
@@ -20166,7 +20173,7 @@
       <c r="K162" s="71"/>
       <c r="L162" s="23"/>
       <c r="N162" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O162" s="95"/>
       <c r="P162" s="95"/>
@@ -20215,7 +20222,7 @@
       <c r="K163" s="71"/>
       <c r="L163" s="23"/>
       <c r="O163" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P163" s="95"/>
       <c r="Q163" s="95"/>
@@ -20263,7 +20270,7 @@
       <c r="K164" s="71"/>
       <c r="L164" s="23"/>
       <c r="O164" s="95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P164" s="95"/>
       <c r="Q164" s="95"/>
@@ -20311,7 +20318,7 @@
       <c r="L165" s="23"/>
       <c r="O165" s="95"/>
       <c r="P165" s="95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q165" s="95"/>
       <c r="R165" s="95"/>
@@ -20325,7 +20332,7 @@
         <v>116</v>
       </c>
       <c r="AA165" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB165" s="23"/>
       <c r="AC165" s="23"/>
@@ -20362,7 +20369,7 @@
       <c r="L166" s="23"/>
       <c r="O166" s="95"/>
       <c r="P166" s="95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q166" s="95"/>
       <c r="R166" s="95"/>
@@ -20376,7 +20383,7 @@
         <v>116</v>
       </c>
       <c r="AA166" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB166" s="23"/>
       <c r="AC166" s="23"/>
@@ -20413,7 +20420,7 @@
       <c r="L167" s="23"/>
       <c r="O167" s="95"/>
       <c r="P167" s="95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q167" s="95"/>
       <c r="R167" s="95"/>
@@ -20427,7 +20434,7 @@
         <v>116</v>
       </c>
       <c r="AA167" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB167" s="23"/>
       <c r="AC167" s="23"/>
@@ -20464,7 +20471,7 @@
       <c r="L168" s="23"/>
       <c r="O168" s="95"/>
       <c r="P168" s="95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q168" s="95"/>
       <c r="R168" s="95"/>
@@ -20478,7 +20485,7 @@
         <v>116</v>
       </c>
       <c r="AA168" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB168" s="23"/>
       <c r="AC168" s="23"/>
@@ -20515,7 +20522,7 @@
       <c r="L169" s="23"/>
       <c r="O169" s="95"/>
       <c r="P169" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q169" s="95"/>
       <c r="R169" s="95"/>
@@ -20529,7 +20536,7 @@
         <v>116</v>
       </c>
       <c r="AA169" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB169" s="23"/>
       <c r="AC169" s="23"/>
@@ -20565,7 +20572,7 @@
       <c r="K170" s="71"/>
       <c r="L170" s="23"/>
       <c r="O170" s="95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P170" s="95"/>
       <c r="Q170" s="95"/>
@@ -20613,7 +20620,7 @@
       <c r="L171" s="23"/>
       <c r="O171" s="95"/>
       <c r="P171" s="95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q171" s="95"/>
       <c r="R171" s="95"/>
@@ -20627,7 +20634,7 @@
         <v>116</v>
       </c>
       <c r="AA171" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB171" s="23"/>
       <c r="AC171" s="23"/>
@@ -20664,7 +20671,7 @@
       <c r="L172" s="23"/>
       <c r="O172" s="95"/>
       <c r="P172" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q172" s="95"/>
       <c r="R172" s="95"/>
@@ -20678,7 +20685,7 @@
         <v>116</v>
       </c>
       <c r="AA172" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB172" s="23"/>
       <c r="AC172" s="23"/>
@@ -20714,7 +20721,7 @@
       <c r="K173" s="71"/>
       <c r="L173" s="23"/>
       <c r="O173" s="95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P173" s="95"/>
       <c r="Q173" s="95"/>
@@ -20762,7 +20769,7 @@
       <c r="L174" s="23"/>
       <c r="O174" s="95"/>
       <c r="P174" s="95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q174" s="95"/>
       <c r="R174" s="95"/>
@@ -20776,7 +20783,7 @@
         <v>116</v>
       </c>
       <c r="AA174" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB174" s="23"/>
       <c r="AC174" s="23"/>
@@ -20857,7 +20864,7 @@
       <c r="K176" s="71"/>
       <c r="L176" s="23"/>
       <c r="N176" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O176" s="94"/>
       <c r="P176" s="94"/>
@@ -20905,7 +20912,7 @@
       <c r="K177" s="71"/>
       <c r="L177" s="23"/>
       <c r="O177" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P177" s="94"/>
       <c r="Q177" s="94"/>
@@ -20919,7 +20926,7 @@
         <v>116</v>
       </c>
       <c r="AA177" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB177" s="94"/>
       <c r="AC177" s="94"/>
@@ -20952,7 +20959,7 @@
       <c r="K178" s="71"/>
       <c r="L178" s="23"/>
       <c r="O178" s="94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P178" s="94"/>
       <c r="Q178" s="94"/>
@@ -20966,7 +20973,7 @@
         <v>116</v>
       </c>
       <c r="AA178" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB178" s="94"/>
       <c r="AC178" s="94"/>
@@ -20999,7 +21006,7 @@
       <c r="K179" s="71"/>
       <c r="L179" s="23"/>
       <c r="O179" s="94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P179" s="94"/>
       <c r="Q179" s="94"/>
@@ -21013,7 +21020,7 @@
         <v>116</v>
       </c>
       <c r="AA179" s="97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AB179" s="94"/>
       <c r="AC179" s="94"/>
@@ -21070,7 +21077,7 @@
       <c r="K181" s="71"/>
       <c r="L181" s="23"/>
       <c r="N181" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AK181" s="72"/>
       <c r="AL181" s="72"/>
@@ -21097,7 +21104,7 @@
       <c r="K182" s="71"/>
       <c r="L182" s="23"/>
       <c r="O182" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK182" s="72"/>
       <c r="AL182" s="72"/>
@@ -21124,7 +21131,7 @@
       <c r="K183" s="71"/>
       <c r="L183" s="23"/>
       <c r="O183" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK183" s="72"/>
       <c r="AL183" s="72"/>
@@ -21151,7 +21158,7 @@
       <c r="K184" s="71"/>
       <c r="L184" s="23"/>
       <c r="O184" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK184" s="72"/>
       <c r="AL184" s="72"/>
@@ -21178,7 +21185,7 @@
       <c r="K185" s="71"/>
       <c r="L185" s="23"/>
       <c r="O185" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK185" s="72"/>
       <c r="AL185" s="72"/>
@@ -21205,7 +21212,7 @@
       <c r="K186" s="71"/>
       <c r="L186" s="23"/>
       <c r="O186" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK186" s="72"/>
       <c r="AL186" s="72"/>
@@ -21232,7 +21239,7 @@
       <c r="K187" s="71"/>
       <c r="L187" s="23"/>
       <c r="O187" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK187" s="72"/>
       <c r="AL187" s="72"/>
@@ -21311,7 +21318,7 @@
       <c r="K190" s="71"/>
       <c r="L190" s="23"/>
       <c r="O190" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK190" s="72"/>
       <c r="AL190" s="72"/>
@@ -21338,7 +21345,7 @@
       <c r="K191" s="71"/>
       <c r="L191" s="23"/>
       <c r="O191" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AK191" s="72"/>
       <c r="AL191" s="72"/>
@@ -21414,7 +21421,7 @@
       <c r="K193" s="23"/>
       <c r="L193" s="70"/>
       <c r="M193" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N193" s="23"/>
       <c r="O193" s="23"/>
@@ -21465,7 +21472,7 @@
       <c r="K194" s="71"/>
       <c r="L194" s="23"/>
       <c r="N194" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O194" s="95"/>
       <c r="P194" s="95"/>
@@ -21514,7 +21521,7 @@
       <c r="K195" s="71"/>
       <c r="L195" s="23"/>
       <c r="O195" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P195" s="95"/>
       <c r="Q195" s="95"/>
@@ -21562,7 +21569,7 @@
       <c r="K196" s="71"/>
       <c r="L196" s="23"/>
       <c r="O196" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P196" s="95"/>
       <c r="Q196" s="95"/>
@@ -21610,7 +21617,7 @@
       <c r="K197" s="71"/>
       <c r="L197" s="23"/>
       <c r="O197" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P197" s="95"/>
       <c r="Q197" s="95"/>
@@ -21658,7 +21665,7 @@
       <c r="K198" s="71"/>
       <c r="L198" s="23"/>
       <c r="O198" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P198" s="95"/>
       <c r="Q198" s="95"/>
@@ -21706,7 +21713,7 @@
       <c r="K199" s="71"/>
       <c r="L199" s="23"/>
       <c r="O199" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P199" s="95"/>
       <c r="Q199" s="95"/>
@@ -21754,7 +21761,7 @@
       <c r="K200" s="71"/>
       <c r="L200" s="23"/>
       <c r="O200" s="95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P200" s="95"/>
       <c r="Q200" s="95"/>
@@ -21802,7 +21809,7 @@
       <c r="K201" s="71"/>
       <c r="L201" s="23"/>
       <c r="O201" s="95" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P201" s="95"/>
       <c r="Q201" s="95"/>
@@ -21850,7 +21857,7 @@
       <c r="K202" s="71"/>
       <c r="L202" s="23"/>
       <c r="O202" s="95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P202" s="95"/>
       <c r="Q202" s="95"/>
@@ -21945,7 +21952,7 @@
       <c r="K204" s="71"/>
       <c r="L204" s="23"/>
       <c r="N204" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O204" s="95"/>
       <c r="P204" s="95"/>
@@ -21994,7 +22001,7 @@
       <c r="K205" s="71"/>
       <c r="L205" s="23"/>
       <c r="O205" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P205" s="95"/>
       <c r="Q205" s="95"/>
@@ -22042,7 +22049,7 @@
       <c r="K206" s="71"/>
       <c r="L206" s="23"/>
       <c r="O206" s="95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P206" s="95"/>
       <c r="Q206" s="95"/>
@@ -22091,7 +22098,7 @@
       <c r="L207" s="23"/>
       <c r="O207" s="95"/>
       <c r="P207" s="95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q207" s="95"/>
       <c r="R207" s="95"/>
@@ -22106,7 +22113,7 @@
         <v>116</v>
       </c>
       <c r="AA207" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB207" s="23"/>
       <c r="AC207" s="23"/>
@@ -22143,7 +22150,7 @@
       <c r="L208" s="23"/>
       <c r="O208" s="95"/>
       <c r="P208" s="95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q208" s="95"/>
       <c r="R208" s="95"/>
@@ -22158,7 +22165,7 @@
         <v>116</v>
       </c>
       <c r="AA208" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB208" s="23"/>
       <c r="AC208" s="23"/>
@@ -22194,7 +22201,7 @@
       <c r="K209" s="71"/>
       <c r="L209" s="23"/>
       <c r="O209" s="95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P209" s="95"/>
       <c r="Q209" s="95"/>
@@ -22243,7 +22250,7 @@
       <c r="L210" s="23"/>
       <c r="O210" s="95"/>
       <c r="P210" s="95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q210" s="95"/>
       <c r="R210" s="95"/>
@@ -22258,7 +22265,7 @@
         <v>116</v>
       </c>
       <c r="AA210" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB210" s="23"/>
       <c r="AC210" s="23"/>
@@ -22295,7 +22302,7 @@
       <c r="L211" s="23"/>
       <c r="O211" s="95"/>
       <c r="P211" s="95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q211" s="95"/>
       <c r="R211" s="95"/>
@@ -22310,7 +22317,7 @@
         <v>116</v>
       </c>
       <c r="AA211" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB211" s="23"/>
       <c r="AC211" s="23"/>
@@ -22347,7 +22354,7 @@
       <c r="L212" s="23"/>
       <c r="O212" s="95"/>
       <c r="P212" s="95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q212" s="95"/>
       <c r="R212" s="95"/>
@@ -22362,7 +22369,7 @@
         <v>116</v>
       </c>
       <c r="AA212" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB212" s="23"/>
       <c r="AC212" s="23"/>
@@ -22399,7 +22406,7 @@
       <c r="L213" s="23"/>
       <c r="O213" s="95"/>
       <c r="P213" s="95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q213" s="95"/>
       <c r="R213" s="95"/>
@@ -22414,7 +22421,7 @@
         <v>116</v>
       </c>
       <c r="AA213" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB213" s="23"/>
       <c r="AC213" s="23"/>
@@ -22451,7 +22458,7 @@
       <c r="L214" s="23"/>
       <c r="O214" s="95"/>
       <c r="P214" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q214" s="95"/>
       <c r="R214" s="95"/>
@@ -22466,7 +22473,7 @@
         <v>116</v>
       </c>
       <c r="AA214" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB214" s="23"/>
       <c r="AC214" s="23"/>
@@ -22502,7 +22509,7 @@
       <c r="K215" s="71"/>
       <c r="L215" s="23"/>
       <c r="O215" s="95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P215" s="95"/>
       <c r="Q215" s="95"/>
@@ -22551,7 +22558,7 @@
       <c r="L216" s="23"/>
       <c r="O216" s="95"/>
       <c r="P216" s="95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q216" s="95"/>
       <c r="R216" s="95"/>
@@ -22566,7 +22573,7 @@
         <v>116</v>
       </c>
       <c r="AA216" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB216" s="23"/>
       <c r="AC216" s="23"/>
@@ -22603,7 +22610,7 @@
       <c r="L217" s="23"/>
       <c r="O217" s="95"/>
       <c r="P217" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q217" s="95"/>
       <c r="R217" s="95"/>
@@ -22618,7 +22625,7 @@
         <v>116</v>
       </c>
       <c r="AA217" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AB217" s="23"/>
       <c r="AC217" s="23"/>
@@ -22654,7 +22661,7 @@
       <c r="K218" s="71"/>
       <c r="L218" s="23"/>
       <c r="O218" s="95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P218" s="95"/>
       <c r="Q218" s="95"/>
@@ -22703,7 +22710,7 @@
       <c r="L219" s="23"/>
       <c r="O219" s="95"/>
       <c r="P219" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q219" s="95"/>
       <c r="R219" s="95"/>
@@ -22718,7 +22725,7 @@
         <v>116</v>
       </c>
       <c r="AA219" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB219" s="23"/>
       <c r="AC219" s="23"/>
@@ -22755,7 +22762,7 @@
       <c r="L220" s="23"/>
       <c r="O220" s="95"/>
       <c r="P220" s="95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q220" s="95"/>
       <c r="R220" s="95"/>
@@ -22770,7 +22777,7 @@
         <v>116</v>
       </c>
       <c r="AA220" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB220" s="23"/>
       <c r="AC220" s="23"/>
@@ -22806,7 +22813,7 @@
       <c r="K221" s="71"/>
       <c r="L221" s="23"/>
       <c r="O221" s="95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P221" s="95"/>
       <c r="Q221" s="95"/>
@@ -22855,7 +22862,7 @@
       <c r="L222" s="23"/>
       <c r="O222" s="95"/>
       <c r="P222" s="95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q222" s="95"/>
       <c r="R222" s="95"/>
@@ -22870,7 +22877,7 @@
         <v>116</v>
       </c>
       <c r="AA222" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB222" s="23"/>
       <c r="AC222" s="23"/>
@@ -22952,7 +22959,7 @@
       <c r="K224" s="71"/>
       <c r="L224" s="23"/>
       <c r="N224" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O224" s="94"/>
       <c r="P224" s="94"/>
@@ -23002,7 +23009,7 @@
       <c r="L225" s="23"/>
       <c r="M225" s="94"/>
       <c r="O225" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P225" s="94"/>
       <c r="Q225" s="94"/>
@@ -23017,7 +23024,7 @@
         <v>116</v>
       </c>
       <c r="AA225" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB225" s="94"/>
       <c r="AC225" s="94"/>
@@ -23051,7 +23058,7 @@
       <c r="L226" s="23"/>
       <c r="M226" s="94"/>
       <c r="O226" s="94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P226" s="94"/>
       <c r="Q226" s="94"/>
@@ -23066,7 +23073,7 @@
         <v>116</v>
       </c>
       <c r="AA226" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB226" s="94"/>
       <c r="AC226" s="94"/>
@@ -23099,7 +23106,7 @@
       <c r="K227" s="71"/>
       <c r="L227" s="23"/>
       <c r="O227" s="94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P227" s="94"/>
       <c r="Q227" s="94"/>
@@ -23114,7 +23121,7 @@
         <v>116</v>
       </c>
       <c r="AA227" s="97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AB227" s="94"/>
       <c r="AC227" s="94"/>
@@ -23171,7 +23178,7 @@
       <c r="K229" s="71"/>
       <c r="L229" s="23"/>
       <c r="N229" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL229" s="72"/>
       <c r="AM229" s="72"/>
@@ -23197,7 +23204,7 @@
       <c r="K230" s="71"/>
       <c r="L230" s="23"/>
       <c r="O230" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL230" s="72"/>
       <c r="AM230" s="72"/>
@@ -23223,7 +23230,7 @@
       <c r="K231" s="71"/>
       <c r="L231" s="23"/>
       <c r="O231" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL231" s="72"/>
       <c r="AM231" s="72"/>
@@ -23249,7 +23256,7 @@
       <c r="K232" s="71"/>
       <c r="L232" s="23"/>
       <c r="O232" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL232" s="72"/>
       <c r="AM232" s="72"/>
@@ -23275,7 +23282,7 @@
       <c r="K233" s="71"/>
       <c r="L233" s="23"/>
       <c r="O233" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL233" s="72"/>
       <c r="AM233" s="72"/>
@@ -23301,7 +23308,7 @@
       <c r="K234" s="71"/>
       <c r="L234" s="23"/>
       <c r="O234" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL234" s="72"/>
       <c r="AM234" s="72"/>
@@ -23327,7 +23334,7 @@
       <c r="K235" s="71"/>
       <c r="L235" s="23"/>
       <c r="O235" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL235" s="72"/>
       <c r="AM235" s="72"/>
@@ -23353,7 +23360,7 @@
       <c r="K236" s="71"/>
       <c r="L236" s="23"/>
       <c r="O236" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL236" s="72"/>
       <c r="AM236" s="72"/>
@@ -23429,7 +23436,7 @@
       <c r="K239" s="71"/>
       <c r="L239" s="23"/>
       <c r="O239" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL239" s="72"/>
       <c r="AM239" s="72"/>
@@ -23455,7 +23462,7 @@
       <c r="K240" s="71"/>
       <c r="L240" s="23"/>
       <c r="O240" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL240" s="72"/>
       <c r="AM240" s="72"/>
@@ -23530,7 +23537,7 @@
       <c r="K242" s="23"/>
       <c r="L242" s="70"/>
       <c r="M242" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N242" s="23"/>
       <c r="O242" s="23"/>
@@ -23581,7 +23588,7 @@
       <c r="K243" s="71"/>
       <c r="L243" s="23"/>
       <c r="N243" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O243" s="95"/>
       <c r="P243" s="95"/>
@@ -23630,7 +23637,7 @@
       <c r="K244" s="71"/>
       <c r="L244" s="23"/>
       <c r="O244" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P244" s="95"/>
       <c r="Q244" s="95"/>
@@ -23678,7 +23685,7 @@
       <c r="K245" s="71"/>
       <c r="L245" s="23"/>
       <c r="O245" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P245" s="95"/>
       <c r="Q245" s="95"/>
@@ -23726,7 +23733,7 @@
       <c r="K246" s="71"/>
       <c r="L246" s="23"/>
       <c r="O246" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P246" s="95"/>
       <c r="Q246" s="95"/>
@@ -23774,7 +23781,7 @@
       <c r="K247" s="71"/>
       <c r="L247" s="23"/>
       <c r="O247" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P247" s="95"/>
       <c r="Q247" s="95"/>
@@ -23822,7 +23829,7 @@
       <c r="K248" s="71"/>
       <c r="L248" s="23"/>
       <c r="O248" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P248" s="95"/>
       <c r="Q248" s="95"/>
@@ -23917,7 +23924,7 @@
       <c r="K250" s="71"/>
       <c r="L250" s="23"/>
       <c r="N250" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O250" s="95"/>
       <c r="P250" s="95"/>
@@ -23966,7 +23973,7 @@
       <c r="K251" s="71"/>
       <c r="L251" s="23"/>
       <c r="O251" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P251" s="95"/>
       <c r="Q251" s="95"/>
@@ -24014,7 +24021,7 @@
       <c r="K252" s="71"/>
       <c r="L252" s="23"/>
       <c r="O252" s="95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P252" s="95"/>
       <c r="Q252" s="95"/>
@@ -24063,7 +24070,7 @@
       <c r="L253" s="23"/>
       <c r="O253" s="95"/>
       <c r="P253" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q253" s="95"/>
       <c r="R253" s="95"/>
@@ -24078,7 +24085,7 @@
         <v>116</v>
       </c>
       <c r="AA253" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB253" s="23"/>
       <c r="AC253" s="23"/>
@@ -24115,7 +24122,7 @@
       <c r="L254" s="23"/>
       <c r="O254" s="95"/>
       <c r="P254" s="95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q254" s="95"/>
       <c r="R254" s="95"/>
@@ -24130,7 +24137,7 @@
         <v>116</v>
       </c>
       <c r="AA254" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB254" s="23"/>
       <c r="AC254" s="23"/>
@@ -24212,7 +24219,7 @@
       <c r="K256" s="71"/>
       <c r="L256" s="23"/>
       <c r="N256" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O256" s="94"/>
       <c r="P256" s="94"/>
@@ -24262,7 +24269,7 @@
       <c r="L257" s="23"/>
       <c r="M257" s="94"/>
       <c r="O257" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P257" s="94"/>
       <c r="Q257" s="94"/>
@@ -24277,7 +24284,7 @@
         <v>116</v>
       </c>
       <c r="AA257" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB257" s="94"/>
       <c r="AC257" s="94"/>
@@ -24311,7 +24318,7 @@
       <c r="L258" s="23"/>
       <c r="M258" s="94"/>
       <c r="O258" s="94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P258" s="94"/>
       <c r="Q258" s="94"/>
@@ -24326,7 +24333,7 @@
         <v>116</v>
       </c>
       <c r="AA258" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB258" s="94"/>
       <c r="AC258" s="94"/>
@@ -24359,7 +24366,7 @@
       <c r="K259" s="71"/>
       <c r="L259" s="23"/>
       <c r="O259" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P259" s="94"/>
       <c r="Q259" s="94"/>
@@ -24374,7 +24381,7 @@
         <v>116</v>
       </c>
       <c r="AA259" s="97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB259" s="94"/>
       <c r="AC259" s="94"/>
@@ -24431,7 +24438,7 @@
       <c r="K261" s="71"/>
       <c r="L261" s="23"/>
       <c r="N261" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL261" s="72"/>
       <c r="AM261" s="72"/>
@@ -24457,7 +24464,7 @@
       <c r="K262" s="71"/>
       <c r="L262" s="23"/>
       <c r="O262" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL262" s="72"/>
       <c r="AM262" s="72"/>
@@ -24483,7 +24490,7 @@
       <c r="K263" s="71"/>
       <c r="L263" s="23"/>
       <c r="O263" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL263" s="72"/>
       <c r="AM263" s="72"/>
@@ -24509,7 +24516,7 @@
       <c r="K264" s="71"/>
       <c r="L264" s="23"/>
       <c r="O264" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL264" s="72"/>
       <c r="AM264" s="72"/>
@@ -24535,7 +24542,7 @@
       <c r="K265" s="71"/>
       <c r="L265" s="23"/>
       <c r="O265" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL265" s="72"/>
       <c r="AM265" s="72"/>
@@ -24611,7 +24618,7 @@
       <c r="K268" s="71"/>
       <c r="L268" s="23"/>
       <c r="O268" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL268" s="72"/>
       <c r="AM268" s="72"/>
@@ -24637,7 +24644,7 @@
       <c r="K269" s="71"/>
       <c r="L269" s="23"/>
       <c r="O269" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL269" s="72"/>
       <c r="AM269" s="72"/>
@@ -24712,7 +24719,7 @@
       <c r="K271" s="23"/>
       <c r="L271" s="70"/>
       <c r="M271" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N271" s="23"/>
       <c r="O271" s="23"/>
@@ -24763,7 +24770,7 @@
       <c r="K272" s="71"/>
       <c r="L272" s="23"/>
       <c r="N272" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O272" s="95"/>
       <c r="P272" s="95"/>
@@ -24812,7 +24819,7 @@
       <c r="K273" s="71"/>
       <c r="L273" s="23"/>
       <c r="O273" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P273" s="95"/>
       <c r="Q273" s="95"/>
@@ -24860,7 +24867,7 @@
       <c r="K274" s="71"/>
       <c r="L274" s="23"/>
       <c r="O274" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P274" s="95"/>
       <c r="Q274" s="95"/>
@@ -24908,7 +24915,7 @@
       <c r="K275" s="71"/>
       <c r="L275" s="23"/>
       <c r="O275" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P275" s="95"/>
       <c r="Q275" s="95"/>
@@ -24956,7 +24963,7 @@
       <c r="K276" s="71"/>
       <c r="L276" s="23"/>
       <c r="O276" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P276" s="95"/>
       <c r="Q276" s="95"/>
@@ -25003,7 +25010,7 @@
       <c r="K277" s="71"/>
       <c r="L277" s="23"/>
       <c r="O277" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P277" s="95"/>
       <c r="Q277" s="95"/>
@@ -25097,7 +25104,7 @@
       <c r="K279" s="71"/>
       <c r="L279" s="23"/>
       <c r="N279" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O279" s="95"/>
       <c r="P279" s="95"/>
@@ -25146,7 +25153,7 @@
       <c r="K280" s="71"/>
       <c r="L280" s="23"/>
       <c r="O280" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P280" s="95"/>
       <c r="Q280" s="95"/>
@@ -25194,7 +25201,7 @@
       <c r="K281" s="71"/>
       <c r="L281" s="23"/>
       <c r="O281" s="95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P281" s="95"/>
       <c r="Q281" s="95"/>
@@ -25243,7 +25250,7 @@
       <c r="L282" s="23"/>
       <c r="O282" s="95"/>
       <c r="P282" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q282" s="95"/>
       <c r="R282" s="95"/>
@@ -25258,7 +25265,7 @@
         <v>116</v>
       </c>
       <c r="AA282" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB282" s="23"/>
       <c r="AC282" s="23"/>
@@ -25295,7 +25302,7 @@
       <c r="L283" s="23"/>
       <c r="O283" s="95"/>
       <c r="P283" s="95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q283" s="95"/>
       <c r="R283" s="95"/>
@@ -25310,7 +25317,7 @@
         <v>116</v>
       </c>
       <c r="AA283" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB283" s="23"/>
       <c r="AC283" s="23"/>
@@ -25392,7 +25399,7 @@
       <c r="K285" s="71"/>
       <c r="L285" s="23"/>
       <c r="N285" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O285" s="94"/>
       <c r="P285" s="94"/>
@@ -25442,7 +25449,7 @@
       <c r="L286" s="23"/>
       <c r="M286" s="94"/>
       <c r="O286" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P286" s="94"/>
       <c r="Q286" s="94"/>
@@ -25457,7 +25464,7 @@
         <v>116</v>
       </c>
       <c r="AA286" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB286" s="94"/>
       <c r="AC286" s="94"/>
@@ -25491,7 +25498,7 @@
       <c r="L287" s="23"/>
       <c r="M287" s="94"/>
       <c r="O287" s="94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P287" s="94"/>
       <c r="Q287" s="94"/>
@@ -25506,7 +25513,7 @@
         <v>116</v>
       </c>
       <c r="AA287" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB287" s="94"/>
       <c r="AC287" s="94"/>
@@ -25539,7 +25546,7 @@
       <c r="K288" s="71"/>
       <c r="L288" s="23"/>
       <c r="O288" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P288" s="94"/>
       <c r="Q288" s="94"/>
@@ -25554,7 +25561,7 @@
         <v>116</v>
       </c>
       <c r="AA288" s="97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB288" s="94"/>
       <c r="AC288" s="94"/>
@@ -25611,7 +25618,7 @@
       <c r="K290" s="71"/>
       <c r="L290" s="23"/>
       <c r="N290" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL290" s="72"/>
       <c r="AM290" s="72"/>
@@ -25637,7 +25644,7 @@
       <c r="K291" s="71"/>
       <c r="L291" s="23"/>
       <c r="O291" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL291" s="72"/>
       <c r="AM291" s="72"/>
@@ -25663,7 +25670,7 @@
       <c r="K292" s="71"/>
       <c r="L292" s="23"/>
       <c r="O292" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL292" s="72"/>
       <c r="AM292" s="72"/>
@@ -25689,7 +25696,7 @@
       <c r="K293" s="71"/>
       <c r="L293" s="23"/>
       <c r="O293" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL293" s="72"/>
       <c r="AM293" s="72"/>
@@ -25715,7 +25722,7 @@
       <c r="K294" s="71"/>
       <c r="L294" s="23"/>
       <c r="O294" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL294" s="72"/>
       <c r="AM294" s="72"/>
@@ -25791,7 +25798,7 @@
       <c r="K297" s="71"/>
       <c r="L297" s="23"/>
       <c r="O297" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL297" s="72"/>
       <c r="AM297" s="72"/>
@@ -25817,7 +25824,7 @@
       <c r="K298" s="71"/>
       <c r="L298" s="23"/>
       <c r="O298" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL298" s="72"/>
       <c r="AM298" s="72"/>
@@ -25892,7 +25899,7 @@
       <c r="K300" s="23"/>
       <c r="L300" s="70"/>
       <c r="M300" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N300" s="23"/>
       <c r="O300" s="23"/>
@@ -25943,7 +25950,7 @@
       <c r="K301" s="71"/>
       <c r="L301" s="23"/>
       <c r="N301" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O301" s="95"/>
       <c r="P301" s="95"/>
@@ -25992,7 +25999,7 @@
       <c r="K302" s="71"/>
       <c r="L302" s="23"/>
       <c r="O302" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P302" s="95"/>
       <c r="Q302" s="95"/>
@@ -26040,7 +26047,7 @@
       <c r="K303" s="71"/>
       <c r="L303" s="23"/>
       <c r="O303" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P303" s="95"/>
       <c r="Q303" s="95"/>
@@ -26088,7 +26095,7 @@
       <c r="K304" s="71"/>
       <c r="L304" s="23"/>
       <c r="O304" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P304" s="95"/>
       <c r="Q304" s="95"/>
@@ -26136,7 +26143,7 @@
       <c r="K305" s="71"/>
       <c r="L305" s="23"/>
       <c r="O305" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P305" s="95"/>
       <c r="Q305" s="95"/>
@@ -26184,7 +26191,7 @@
       <c r="K306" s="71"/>
       <c r="L306" s="23"/>
       <c r="O306" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P306" s="95"/>
       <c r="Q306" s="95"/>
@@ -26278,7 +26285,7 @@
       <c r="K308" s="71"/>
       <c r="L308" s="23"/>
       <c r="N308" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O308" s="95"/>
       <c r="P308" s="95"/>
@@ -26327,7 +26334,7 @@
       <c r="K309" s="71"/>
       <c r="L309" s="23"/>
       <c r="O309" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P309" s="95"/>
       <c r="Q309" s="95"/>
@@ -26375,7 +26382,7 @@
       <c r="K310" s="71"/>
       <c r="L310" s="23"/>
       <c r="O310" s="95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P310" s="95"/>
       <c r="Q310" s="95"/>
@@ -26424,7 +26431,7 @@
       <c r="L311" s="23"/>
       <c r="O311" s="95"/>
       <c r="P311" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q311" s="95"/>
       <c r="R311" s="95"/>
@@ -26439,7 +26446,7 @@
         <v>116</v>
       </c>
       <c r="AA311" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB311" s="23"/>
       <c r="AC311" s="23"/>
@@ -26476,7 +26483,7 @@
       <c r="L312" s="23"/>
       <c r="O312" s="95"/>
       <c r="P312" s="95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q312" s="95"/>
       <c r="R312" s="95"/>
@@ -26491,7 +26498,7 @@
         <v>116</v>
       </c>
       <c r="AA312" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB312" s="23"/>
       <c r="AC312" s="23"/>
@@ -26573,7 +26580,7 @@
       <c r="K314" s="71"/>
       <c r="L314" s="23"/>
       <c r="N314" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O314" s="94"/>
       <c r="P314" s="94"/>
@@ -26623,7 +26630,7 @@
       <c r="L315" s="23"/>
       <c r="M315" s="94"/>
       <c r="O315" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P315" s="94"/>
       <c r="Q315" s="94"/>
@@ -26638,7 +26645,7 @@
         <v>116</v>
       </c>
       <c r="AA315" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB315" s="94"/>
       <c r="AC315" s="94"/>
@@ -26672,7 +26679,7 @@
       <c r="L316" s="23"/>
       <c r="M316" s="94"/>
       <c r="O316" s="94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P316" s="94"/>
       <c r="Q316" s="94"/>
@@ -26687,7 +26694,7 @@
         <v>116</v>
       </c>
       <c r="AA316" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB316" s="94"/>
       <c r="AC316" s="94"/>
@@ -26720,7 +26727,7 @@
       <c r="K317" s="71"/>
       <c r="L317" s="23"/>
       <c r="O317" s="94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P317" s="94"/>
       <c r="Q317" s="94"/>
@@ -26735,7 +26742,7 @@
         <v>116</v>
       </c>
       <c r="AA317" s="97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AB317" s="94"/>
       <c r="AC317" s="94"/>
@@ -26792,7 +26799,7 @@
       <c r="K319" s="71"/>
       <c r="L319" s="23"/>
       <c r="N319" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL319" s="72"/>
       <c r="AM319" s="72"/>
@@ -26818,7 +26825,7 @@
       <c r="K320" s="71"/>
       <c r="L320" s="23"/>
       <c r="O320" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL320" s="72"/>
       <c r="AM320" s="72"/>
@@ -26844,7 +26851,7 @@
       <c r="K321" s="71"/>
       <c r="L321" s="23"/>
       <c r="O321" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL321" s="72"/>
       <c r="AM321" s="72"/>
@@ -26870,7 +26877,7 @@
       <c r="K322" s="71"/>
       <c r="L322" s="23"/>
       <c r="O322" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL322" s="72"/>
       <c r="AM322" s="72"/>
@@ -26896,7 +26903,7 @@
       <c r="K323" s="71"/>
       <c r="L323" s="23"/>
       <c r="O323" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL323" s="72"/>
       <c r="AM323" s="72"/>
@@ -26972,7 +26979,7 @@
       <c r="K326" s="71"/>
       <c r="L326" s="23"/>
       <c r="O326" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL326" s="72"/>
       <c r="AM326" s="72"/>
@@ -26998,7 +27005,7 @@
       <c r="K327" s="71"/>
       <c r="L327" s="23"/>
       <c r="O327" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL327" s="72"/>
       <c r="AM327" s="72"/>
@@ -27073,7 +27080,7 @@
       <c r="K329" s="23"/>
       <c r="L329" s="70"/>
       <c r="M329" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N329" s="23"/>
       <c r="O329" s="23"/>
@@ -27124,7 +27131,7 @@
       <c r="K330" s="71"/>
       <c r="L330" s="23"/>
       <c r="N330" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O330" s="95"/>
       <c r="P330" s="95"/>
@@ -27173,7 +27180,7 @@
       <c r="K331" s="71"/>
       <c r="L331" s="23"/>
       <c r="O331" s="95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P331" s="95"/>
       <c r="Q331" s="95"/>
@@ -27221,7 +27228,7 @@
       <c r="K332" s="71"/>
       <c r="L332" s="23"/>
       <c r="O332" s="95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P332" s="95"/>
       <c r="Q332" s="95"/>
@@ -27269,7 +27276,7 @@
       <c r="K333" s="71"/>
       <c r="L333" s="23"/>
       <c r="O333" s="95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P333" s="95"/>
       <c r="Q333" s="95"/>
@@ -27317,7 +27324,7 @@
       <c r="K334" s="71"/>
       <c r="L334" s="23"/>
       <c r="O334" s="95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P334" s="95"/>
       <c r="Q334" s="95"/>
@@ -27365,7 +27372,7 @@
       <c r="K335" s="71"/>
       <c r="L335" s="23"/>
       <c r="O335" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P335" s="95"/>
       <c r="Q335" s="95"/>
@@ -27460,7 +27467,7 @@
       <c r="K337" s="71"/>
       <c r="L337" s="23"/>
       <c r="N337" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O337" s="95"/>
       <c r="P337" s="95"/>
@@ -27509,7 +27516,7 @@
       <c r="K338" s="71"/>
       <c r="L338" s="23"/>
       <c r="O338" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P338" s="95"/>
       <c r="Q338" s="95"/>
@@ -27557,7 +27564,7 @@
       <c r="K339" s="71"/>
       <c r="L339" s="23"/>
       <c r="O339" s="95" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P339" s="95"/>
       <c r="Q339" s="95"/>
@@ -27606,7 +27613,7 @@
       <c r="L340" s="23"/>
       <c r="O340" s="95"/>
       <c r="P340" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q340" s="95"/>
       <c r="R340" s="95"/>
@@ -27621,7 +27628,7 @@
         <v>116</v>
       </c>
       <c r="AA340" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB340" s="23"/>
       <c r="AC340" s="23"/>
@@ -27658,7 +27665,7 @@
       <c r="L341" s="23"/>
       <c r="O341" s="95"/>
       <c r="P341" s="95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q341" s="95"/>
       <c r="R341" s="95"/>
@@ -27673,7 +27680,7 @@
         <v>116</v>
       </c>
       <c r="AA341" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB341" s="23"/>
       <c r="AC341" s="23"/>
@@ -27755,7 +27762,7 @@
       <c r="K343" s="71"/>
       <c r="L343" s="23"/>
       <c r="N343" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O343" s="94"/>
       <c r="P343" s="94"/>
@@ -27805,7 +27812,7 @@
       <c r="L344" s="23"/>
       <c r="M344" s="94"/>
       <c r="O344" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P344" s="94"/>
       <c r="Q344" s="94"/>
@@ -27820,7 +27827,7 @@
         <v>116</v>
       </c>
       <c r="AA344" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB344" s="94"/>
       <c r="AC344" s="94"/>
@@ -27854,7 +27861,7 @@
       <c r="L345" s="23"/>
       <c r="M345" s="94"/>
       <c r="O345" s="94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P345" s="94"/>
       <c r="Q345" s="94"/>
@@ -27869,7 +27876,7 @@
         <v>116</v>
       </c>
       <c r="AA345" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB345" s="94"/>
       <c r="AC345" s="94"/>
@@ -27902,7 +27909,7 @@
       <c r="K346" s="71"/>
       <c r="L346" s="23"/>
       <c r="O346" s="94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P346" s="94"/>
       <c r="Q346" s="94"/>
@@ -27917,7 +27924,7 @@
         <v>116</v>
       </c>
       <c r="AA346" s="97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB346" s="94"/>
       <c r="AC346" s="94"/>
@@ -27974,7 +27981,7 @@
       <c r="K348" s="71"/>
       <c r="L348" s="23"/>
       <c r="N348" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL348" s="72"/>
       <c r="AM348" s="72"/>
@@ -28000,7 +28007,7 @@
       <c r="K349" s="71"/>
       <c r="L349" s="23"/>
       <c r="O349" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL349" s="72"/>
       <c r="AM349" s="72"/>
@@ -28026,7 +28033,7 @@
       <c r="K350" s="71"/>
       <c r="L350" s="23"/>
       <c r="O350" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL350" s="72"/>
       <c r="AM350" s="72"/>
@@ -28052,7 +28059,7 @@
       <c r="K351" s="71"/>
       <c r="L351" s="23"/>
       <c r="O351" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AL351" s="72"/>
       <c r="AM351" s="72"/>
@@ -28078,7 +28085,7 @@
       <c r="K352" s="71"/>
       <c r="L352" s="23"/>
       <c r="O352" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL352" s="72"/>
       <c r="AM352" s="72"/>
@@ -28154,7 +28161,7 @@
       <c r="K355" s="71"/>
       <c r="L355" s="23"/>
       <c r="O355" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL355" s="72"/>
       <c r="AM355" s="72"/>
@@ -28180,7 +28187,7 @@
       <c r="K356" s="71"/>
       <c r="L356" s="23"/>
       <c r="O356" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL356" s="72"/>
       <c r="AM356" s="72"/>
@@ -28255,7 +28262,7 @@
       <c r="K358" s="23"/>
       <c r="L358" s="70"/>
       <c r="M358" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N358" s="23"/>
       <c r="O358" s="23"/>
@@ -28306,7 +28313,7 @@
       <c r="K359" s="71"/>
       <c r="L359" s="23"/>
       <c r="N359" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O359" s="95"/>
       <c r="P359" s="95"/>
@@ -28355,7 +28362,7 @@
       <c r="K360" s="71"/>
       <c r="L360" s="23"/>
       <c r="O360" s="95" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P360" s="95"/>
       <c r="Q360" s="95"/>
@@ -28403,7 +28410,7 @@
       <c r="K361" s="71"/>
       <c r="L361" s="23"/>
       <c r="O361" s="95" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P361" s="95"/>
       <c r="Q361" s="95"/>
@@ -28451,7 +28458,7 @@
       <c r="K362" s="71"/>
       <c r="L362" s="23"/>
       <c r="O362" s="95" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P362" s="95"/>
       <c r="Q362" s="95"/>
@@ -28499,7 +28506,7 @@
       <c r="K363" s="71"/>
       <c r="L363" s="23"/>
       <c r="O363" s="95" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P363" s="95"/>
       <c r="Q363" s="95"/>
@@ -28594,7 +28601,7 @@
       <c r="K365" s="71"/>
       <c r="L365" s="23"/>
       <c r="N365" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O365" s="95"/>
       <c r="P365" s="95"/>
@@ -28643,7 +28650,7 @@
       <c r="K366" s="71"/>
       <c r="L366" s="23"/>
       <c r="O366" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P366" s="95"/>
       <c r="Q366" s="95"/>
@@ -28737,7 +28744,7 @@
       <c r="K368" s="71"/>
       <c r="L368" s="23"/>
       <c r="N368" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O368" s="94"/>
       <c r="P368" s="94"/>
@@ -28787,7 +28794,7 @@
       <c r="L369" s="23"/>
       <c r="M369" s="94"/>
       <c r="O369" s="94" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P369" s="94"/>
       <c r="Q369" s="94"/>
@@ -28802,7 +28809,7 @@
         <v>116</v>
       </c>
       <c r="AA369" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB369" s="94"/>
       <c r="AC369" s="94"/>
@@ -28836,7 +28843,7 @@
       <c r="L370" s="23"/>
       <c r="M370" s="94"/>
       <c r="O370" s="94" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P370" s="94"/>
       <c r="Q370" s="94"/>
@@ -28851,7 +28858,7 @@
         <v>116</v>
       </c>
       <c r="AA370" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB370" s="94"/>
       <c r="AC370" s="94"/>
@@ -28884,7 +28891,7 @@
       <c r="K371" s="71"/>
       <c r="L371" s="23"/>
       <c r="O371" s="124" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P371" s="124"/>
       <c r="Q371" s="124"/>
@@ -28897,10 +28904,10 @@
       <c r="X371" s="124"/>
       <c r="Y371" s="131"/>
       <c r="Z371" s="124" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA371" s="118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB371" s="124"/>
       <c r="AC371" s="124"/>
@@ -28934,7 +28941,7 @@
       <c r="L372" s="23"/>
       <c r="N372" s="94"/>
       <c r="O372" s="131" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P372" s="131"/>
       <c r="Q372" s="131"/>
@@ -28947,10 +28954,10 @@
       <c r="X372" s="131"/>
       <c r="Y372" s="131"/>
       <c r="Z372" s="131" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AA372" s="131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB372" s="131"/>
       <c r="AC372" s="131"/>
@@ -29003,7 +29010,7 @@
       <c r="K374" s="71"/>
       <c r="L374" s="23"/>
       <c r="N374" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL374" s="72"/>
       <c r="AM374" s="72"/>
@@ -29029,7 +29036,7 @@
       <c r="K375" s="71"/>
       <c r="L375" s="23"/>
       <c r="O375" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL375" s="72"/>
       <c r="AM375" s="72"/>
@@ -29055,7 +29062,7 @@
       <c r="K376" s="71"/>
       <c r="L376" s="23"/>
       <c r="O376" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AL376" s="72"/>
       <c r="AM376" s="72"/>
@@ -29081,7 +29088,7 @@
       <c r="K377" s="71"/>
       <c r="L377" s="23"/>
       <c r="O377" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AL377" s="72"/>
       <c r="AM377" s="72"/>
@@ -29157,7 +29164,7 @@
       <c r="K380" s="71"/>
       <c r="L380" s="23"/>
       <c r="O380" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL380" s="72"/>
       <c r="AM380" s="72"/>
@@ -29183,7 +29190,7 @@
       <c r="K381" s="71"/>
       <c r="L381" s="23"/>
       <c r="O381" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AL381" s="72"/>
       <c r="AM381" s="72"/>
@@ -29258,7 +29265,7 @@
       <c r="K383" s="23"/>
       <c r="L383" s="70"/>
       <c r="M383" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N383" s="23"/>
       <c r="O383" s="23"/>
@@ -29310,7 +29317,7 @@
       <c r="L384" s="70"/>
       <c r="M384" s="23"/>
       <c r="N384" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O384" s="23"/>
       <c r="P384" s="23"/>
@@ -29409,7 +29416,7 @@
       <c r="K386" s="23"/>
       <c r="L386" s="70"/>
       <c r="M386" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N386" s="23"/>
       <c r="O386" s="23"/>
@@ -29460,7 +29467,7 @@
       <c r="K387" s="71"/>
       <c r="L387" s="23"/>
       <c r="N387" s="95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O387" s="95"/>
       <c r="P387" s="95"/>
@@ -29509,7 +29516,7 @@
       <c r="K388" s="71"/>
       <c r="L388" s="23"/>
       <c r="O388" s="95" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P388" s="95"/>
       <c r="Q388" s="95"/>
@@ -29557,7 +29564,7 @@
       <c r="K389" s="71"/>
       <c r="L389" s="23"/>
       <c r="O389" s="95" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P389" s="95"/>
       <c r="Q389" s="95"/>
@@ -29605,7 +29612,7 @@
       <c r="K390" s="71"/>
       <c r="L390" s="23"/>
       <c r="O390" s="95" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P390" s="95"/>
       <c r="Q390" s="95"/>
@@ -29653,7 +29660,7 @@
       <c r="K391" s="71"/>
       <c r="L391" s="23"/>
       <c r="O391" s="95" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P391" s="95"/>
       <c r="Q391" s="95"/>
@@ -29748,7 +29755,7 @@
       <c r="K393" s="71"/>
       <c r="L393" s="23"/>
       <c r="N393" s="95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O393" s="95"/>
       <c r="P393" s="95"/>
@@ -29797,7 +29804,7 @@
       <c r="K394" s="71"/>
       <c r="L394" s="23"/>
       <c r="O394" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P394" s="95"/>
       <c r="Q394" s="95"/>
@@ -29891,7 +29898,7 @@
       <c r="K396" s="71"/>
       <c r="L396" s="23"/>
       <c r="N396" s="94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O396" s="94"/>
       <c r="P396" s="94"/>
@@ -29941,7 +29948,7 @@
       <c r="L397" s="23"/>
       <c r="M397" s="94"/>
       <c r="O397" s="94" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P397" s="94"/>
       <c r="Q397" s="94"/>
@@ -29956,7 +29963,7 @@
         <v>116</v>
       </c>
       <c r="AA397" s="94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB397" s="94"/>
       <c r="AC397" s="94"/>
@@ -29990,7 +29997,7 @@
       <c r="L398" s="23"/>
       <c r="M398" s="94"/>
       <c r="O398" s="94" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P398" s="94"/>
       <c r="Q398" s="94"/>
@@ -30005,7 +30012,7 @@
         <v>116</v>
       </c>
       <c r="AA398" s="94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB398" s="94"/>
       <c r="AC398" s="94"/>
@@ -30038,7 +30045,7 @@
       <c r="K399" s="71"/>
       <c r="L399" s="23"/>
       <c r="O399" s="128" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P399" s="128"/>
       <c r="Q399" s="128"/>
@@ -30054,7 +30061,7 @@
         <v>116</v>
       </c>
       <c r="AA399" s="130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AB399" s="127"/>
       <c r="AC399" s="127"/>
@@ -30090,7 +30097,7 @@
       <c r="K400" s="71"/>
       <c r="L400" s="23"/>
       <c r="O400" s="145" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P400" s="145"/>
       <c r="Q400" s="145"/>
@@ -30106,7 +30113,7 @@
         <v>116</v>
       </c>
       <c r="AA400" s="146" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB400" s="139"/>
       <c r="AC400" s="139"/>
@@ -30166,7 +30173,7 @@
       <c r="K402" s="71"/>
       <c r="L402" s="23"/>
       <c r="N402" s="94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL402" s="72"/>
       <c r="AM402" s="72"/>
@@ -30192,7 +30199,7 @@
       <c r="K403" s="71"/>
       <c r="L403" s="23"/>
       <c r="O403" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AL403" s="72"/>
       <c r="AM403" s="72"/>
@@ -30218,7 +30225,7 @@
       <c r="K404" s="71"/>
       <c r="L404" s="23"/>
       <c r="O404" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AL404" s="72"/>
       <c r="AM404" s="72"/>
@@ -30244,7 +30251,7 @@
       <c r="K405" s="71"/>
       <c r="L405" s="23"/>
       <c r="O405" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AL405" s="72"/>
       <c r="AM405" s="72"/>
@@ -30320,7 +30327,7 @@
       <c r="K408" s="71"/>
       <c r="L408" s="23"/>
       <c r="O408" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL408" s="72"/>
       <c r="AM408" s="72"/>
@@ -30346,7 +30353,7 @@
       <c r="K409" s="71"/>
       <c r="L409" s="23"/>
       <c r="O409" s="16" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AL409" s="72"/>
       <c r="AM409" s="72"/>
@@ -31016,6 +31023,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q12:R13"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="S2:AD2"/>
     <mergeCell ref="AI2:AM2"/>
@@ -31023,7 +31031,6 @@
     <mergeCell ref="S12:T13"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="Q12:R13"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -32493,7 +32500,7 @@
       <c r="A8" s="166"/>
       <c r="B8" s="167"/>
       <c r="C8" s="168" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="D8" s="153"/>
       <c r="E8" s="153"/>
@@ -32511,7 +32518,7 @@
       <c r="Q8" s="169"/>
       <c r="R8" s="168"/>
       <c r="S8" s="169" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U8" s="168"/>
       <c r="V8" s="167"/>
@@ -32553,31 +32560,31 @@
       <c r="D9" s="100"/>
       <c r="E9" s="100"/>
       <c r="F9" s="101" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="225" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="230"/>
+      <c r="I9" s="225" t="s">
         <v>349</v>
       </c>
-      <c r="G9" s="229" t="s">
-        <v>309</v>
-      </c>
-      <c r="H9" s="230"/>
-      <c r="I9" s="229" t="s">
-        <v>350</v>
-      </c>
       <c r="J9" s="230"/>
-      <c r="K9" s="225" t="s">
-        <v>369</v>
+      <c r="K9" s="229" t="s">
+        <v>368</v>
       </c>
       <c r="L9" s="226"/>
-      <c r="M9" s="225" t="s">
-        <v>372</v>
+      <c r="M9" s="229" t="s">
+        <v>371</v>
       </c>
       <c r="N9" s="233"/>
       <c r="O9" s="226"/>
-      <c r="P9" s="229" t="s">
+      <c r="P9" s="225" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q9" s="230"/>
+      <c r="R9" s="225" t="s">
         <v>351</v>
-      </c>
-      <c r="Q9" s="230"/>
-      <c r="R9" s="229" t="s">
-        <v>352</v>
       </c>
       <c r="S9" s="230"/>
       <c r="T9" s="170"/>
@@ -32618,7 +32625,7 @@
       <c r="A10" s="166"/>
       <c r="B10" s="167"/>
       <c r="C10" s="102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="103"/>
@@ -32674,34 +32681,34 @@
       <c r="A11" s="166"/>
       <c r="B11" s="167"/>
       <c r="C11" s="120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
       <c r="F11" s="122"/>
       <c r="G11" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H11" s="123"/>
       <c r="I11" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J11" s="123"/>
       <c r="K11" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L11" s="123"/>
       <c r="M11" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N11" s="123"/>
       <c r="O11" s="123"/>
       <c r="P11" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="123"/>
       <c r="R11" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S11" s="123"/>
       <c r="T11" s="170"/>
@@ -32742,34 +32749,34 @@
       <c r="A12" s="166"/>
       <c r="B12" s="167"/>
       <c r="C12" s="105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D12" s="106"/>
       <c r="E12" s="106"/>
       <c r="F12" s="107"/>
       <c r="G12" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H12" s="108"/>
       <c r="I12" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J12" s="108"/>
       <c r="K12" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L12" s="108"/>
       <c r="M12" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N12" s="108"/>
       <c r="O12" s="108"/>
       <c r="P12" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q12" s="108"/>
       <c r="R12" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S12" s="108"/>
       <c r="T12" s="170"/>
@@ -32810,34 +32817,34 @@
       <c r="A13" s="166"/>
       <c r="B13" s="167"/>
       <c r="C13" s="105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D13" s="106"/>
       <c r="E13" s="106"/>
       <c r="F13" s="107"/>
       <c r="G13" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H13" s="108"/>
       <c r="I13" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J13" s="108"/>
       <c r="K13" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L13" s="108"/>
       <c r="M13" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N13" s="108"/>
       <c r="O13" s="108"/>
       <c r="P13" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="108"/>
       <c r="R13" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S13" s="108"/>
       <c r="T13" s="170"/>
@@ -32878,34 +32885,34 @@
       <c r="A14" s="166"/>
       <c r="B14" s="167"/>
       <c r="C14" s="105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D14" s="106"/>
       <c r="E14" s="106"/>
       <c r="F14" s="107"/>
       <c r="G14" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H14" s="108"/>
       <c r="I14" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J14" s="108"/>
       <c r="K14" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L14" s="108"/>
       <c r="M14" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N14" s="108"/>
       <c r="O14" s="108"/>
       <c r="P14" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="108"/>
       <c r="R14" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S14" s="108"/>
       <c r="T14" s="170"/>
@@ -32946,34 +32953,34 @@
       <c r="A15" s="166"/>
       <c r="B15" s="167"/>
       <c r="C15" s="105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="106"/>
       <c r="F15" s="107"/>
       <c r="G15" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H15" s="108"/>
       <c r="I15" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J15" s="108"/>
       <c r="K15" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L15" s="108"/>
       <c r="M15" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N15" s="108"/>
       <c r="O15" s="108"/>
       <c r="P15" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q15" s="108"/>
       <c r="R15" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S15" s="108"/>
       <c r="T15" s="170"/>
@@ -33014,34 +33021,34 @@
       <c r="A16" s="166"/>
       <c r="B16" s="167"/>
       <c r="C16" s="105" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D16" s="106"/>
       <c r="E16" s="106"/>
       <c r="F16" s="107"/>
       <c r="G16" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H16" s="108"/>
       <c r="I16" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J16" s="108"/>
       <c r="K16" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L16" s="108"/>
       <c r="M16" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N16" s="108"/>
       <c r="O16" s="108"/>
       <c r="P16" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="108"/>
       <c r="R16" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S16" s="108"/>
       <c r="T16" s="170"/>
@@ -33082,34 +33089,34 @@
       <c r="A17" s="166"/>
       <c r="B17" s="167"/>
       <c r="C17" s="120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D17" s="121"/>
       <c r="E17" s="121"/>
       <c r="F17" s="122"/>
       <c r="G17" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H17" s="123"/>
       <c r="I17" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J17" s="123"/>
       <c r="K17" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L17" s="123"/>
       <c r="M17" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N17" s="123"/>
       <c r="O17" s="123"/>
       <c r="P17" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="123"/>
       <c r="R17" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S17" s="123"/>
       <c r="T17" s="170"/>
@@ -33204,7 +33211,7 @@
       <c r="A19" s="166"/>
       <c r="B19" s="167"/>
       <c r="C19" s="168" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D19" s="153"/>
       <c r="E19" s="153"/>
@@ -33229,7 +33236,7 @@
       <c r="X19" s="167"/>
       <c r="Y19" s="170"/>
       <c r="Z19" s="169" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AA19" s="170"/>
       <c r="AB19" s="170"/>
@@ -33265,41 +33272,41 @@
       <c r="D20" s="100"/>
       <c r="E20" s="100"/>
       <c r="F20" s="101" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="225" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="230"/>
+      <c r="I20" s="225" t="s">
         <v>349</v>
       </c>
-      <c r="G20" s="229" t="s">
-        <v>309</v>
-      </c>
-      <c r="H20" s="230"/>
-      <c r="I20" s="229" t="s">
-        <v>350</v>
-      </c>
       <c r="J20" s="230"/>
-      <c r="K20" s="225" t="s">
-        <v>369</v>
+      <c r="K20" s="229" t="s">
+        <v>368</v>
       </c>
       <c r="L20" s="226"/>
-      <c r="M20" s="225" t="s">
-        <v>372</v>
+      <c r="M20" s="229" t="s">
+        <v>371</v>
       </c>
       <c r="N20" s="233"/>
       <c r="O20" s="226"/>
-      <c r="P20" s="225" t="s">
-        <v>373</v>
+      <c r="P20" s="229" t="s">
+        <v>372</v>
       </c>
       <c r="Q20" s="233"/>
       <c r="R20" s="226"/>
-      <c r="S20" s="225" t="s">
-        <v>374</v>
+      <c r="S20" s="229" t="s">
+        <v>373</v>
       </c>
       <c r="T20" s="233"/>
       <c r="U20" s="226"/>
-      <c r="V20" s="225" t="s">
+      <c r="V20" s="229" t="s">
+        <v>374</v>
+      </c>
+      <c r="W20" s="226"/>
+      <c r="X20" s="229" t="s">
         <v>375</v>
-      </c>
-      <c r="W20" s="226"/>
-      <c r="X20" s="225" t="s">
-        <v>376</v>
       </c>
       <c r="Y20" s="233"/>
       <c r="Z20" s="226"/>
@@ -33334,7 +33341,7 @@
       <c r="A21" s="166"/>
       <c r="B21" s="167"/>
       <c r="C21" s="102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="103"/>
@@ -33390,44 +33397,44 @@
       <c r="A22" s="166"/>
       <c r="B22" s="167"/>
       <c r="C22" s="154" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D22" s="155"/>
       <c r="E22" s="155"/>
       <c r="F22" s="156"/>
       <c r="G22" s="157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H22" s="157"/>
       <c r="I22" s="157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J22" s="157"/>
       <c r="K22" s="157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L22" s="157"/>
       <c r="M22" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N22" s="157"/>
       <c r="O22" s="157"/>
       <c r="P22" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="157"/>
       <c r="R22" s="157"/>
       <c r="S22" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T22" s="157"/>
       <c r="U22" s="157"/>
       <c r="V22" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W22" s="157"/>
       <c r="X22" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y22" s="157"/>
       <c r="Z22" s="157"/>
@@ -33462,44 +33469,44 @@
       <c r="A23" s="166"/>
       <c r="B23" s="167"/>
       <c r="C23" s="105" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D23" s="106"/>
       <c r="E23" s="106"/>
       <c r="F23" s="107"/>
       <c r="G23" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H23" s="108"/>
       <c r="I23" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J23" s="108"/>
       <c r="K23" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L23" s="108"/>
       <c r="M23" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N23" s="108"/>
       <c r="O23" s="108"/>
       <c r="P23" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="108"/>
       <c r="R23" s="108"/>
       <c r="S23" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T23" s="108"/>
       <c r="U23" s="108"/>
       <c r="V23" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W23" s="108"/>
       <c r="X23" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y23" s="108"/>
       <c r="Z23" s="108"/>
@@ -33534,44 +33541,44 @@
       <c r="A24" s="166"/>
       <c r="B24" s="167"/>
       <c r="C24" s="105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D24" s="106"/>
       <c r="E24" s="106"/>
       <c r="F24" s="107"/>
       <c r="G24" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H24" s="108"/>
       <c r="I24" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J24" s="108"/>
       <c r="K24" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L24" s="108"/>
       <c r="M24" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N24" s="108"/>
       <c r="O24" s="108"/>
       <c r="P24" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q24" s="108"/>
       <c r="R24" s="108"/>
       <c r="S24" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T24" s="108"/>
       <c r="U24" s="108"/>
       <c r="V24" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W24" s="108"/>
       <c r="X24" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y24" s="108"/>
       <c r="Z24" s="108"/>
@@ -33606,44 +33613,44 @@
       <c r="A25" s="166"/>
       <c r="B25" s="167"/>
       <c r="C25" s="105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D25" s="106"/>
       <c r="E25" s="106"/>
       <c r="F25" s="107"/>
       <c r="G25" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H25" s="108"/>
       <c r="I25" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J25" s="108"/>
       <c r="K25" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L25" s="108"/>
       <c r="M25" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N25" s="108"/>
       <c r="O25" s="108"/>
       <c r="P25" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q25" s="108"/>
       <c r="R25" s="108"/>
       <c r="S25" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T25" s="108"/>
       <c r="U25" s="108"/>
       <c r="V25" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W25" s="108"/>
       <c r="X25" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y25" s="108"/>
       <c r="Z25" s="108"/>
@@ -33678,44 +33685,44 @@
       <c r="A26" s="166"/>
       <c r="B26" s="167"/>
       <c r="C26" s="105" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D26" s="106"/>
       <c r="E26" s="106"/>
       <c r="F26" s="107"/>
       <c r="G26" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H26" s="108"/>
       <c r="I26" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J26" s="108"/>
       <c r="K26" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L26" s="108"/>
       <c r="M26" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N26" s="108"/>
       <c r="O26" s="108"/>
       <c r="P26" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="108"/>
       <c r="R26" s="108"/>
       <c r="S26" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T26" s="108"/>
       <c r="U26" s="108"/>
       <c r="V26" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W26" s="108"/>
       <c r="X26" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y26" s="108"/>
       <c r="Z26" s="108"/>
@@ -33750,44 +33757,44 @@
       <c r="A27" s="166"/>
       <c r="B27" s="167"/>
       <c r="C27" s="105" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D27" s="106"/>
       <c r="E27" s="106"/>
       <c r="F27" s="107"/>
       <c r="G27" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H27" s="108"/>
       <c r="I27" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J27" s="108"/>
       <c r="K27" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L27" s="108"/>
       <c r="M27" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N27" s="108"/>
       <c r="O27" s="108"/>
       <c r="P27" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q27" s="108"/>
       <c r="R27" s="108"/>
       <c r="S27" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T27" s="108"/>
       <c r="U27" s="108"/>
       <c r="V27" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W27" s="108"/>
       <c r="X27" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y27" s="108"/>
       <c r="Z27" s="108"/>
@@ -33822,44 +33829,44 @@
       <c r="A28" s="166"/>
       <c r="B28" s="167"/>
       <c r="C28" s="105" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D28" s="106"/>
       <c r="E28" s="106"/>
       <c r="F28" s="107"/>
       <c r="G28" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H28" s="108"/>
       <c r="I28" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J28" s="108"/>
       <c r="K28" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L28" s="108"/>
       <c r="M28" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N28" s="108"/>
       <c r="O28" s="108"/>
       <c r="P28" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q28" s="108"/>
       <c r="R28" s="108"/>
       <c r="S28" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T28" s="108"/>
       <c r="U28" s="108"/>
       <c r="V28" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W28" s="108"/>
       <c r="X28" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y28" s="108"/>
       <c r="Z28" s="108"/>
@@ -33894,44 +33901,44 @@
       <c r="A29" s="166"/>
       <c r="B29" s="167"/>
       <c r="C29" s="105" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D29" s="106"/>
       <c r="E29" s="106"/>
       <c r="F29" s="107"/>
       <c r="G29" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H29" s="108"/>
       <c r="I29" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J29" s="108"/>
       <c r="K29" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L29" s="108"/>
       <c r="M29" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N29" s="108"/>
       <c r="O29" s="108"/>
       <c r="P29" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q29" s="108"/>
       <c r="R29" s="108"/>
       <c r="S29" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T29" s="108"/>
       <c r="U29" s="108"/>
       <c r="V29" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W29" s="108"/>
       <c r="X29" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y29" s="108"/>
       <c r="Z29" s="108"/>
@@ -33966,44 +33973,44 @@
       <c r="A30" s="166"/>
       <c r="B30" s="167"/>
       <c r="C30" s="105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" s="106"/>
       <c r="E30" s="106"/>
       <c r="F30" s="107"/>
       <c r="G30" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H30" s="108"/>
       <c r="I30" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J30" s="108"/>
       <c r="K30" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L30" s="108"/>
       <c r="M30" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N30" s="108"/>
       <c r="O30" s="108"/>
       <c r="P30" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q30" s="108"/>
       <c r="R30" s="108"/>
       <c r="S30" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T30" s="108"/>
       <c r="U30" s="108"/>
       <c r="V30" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W30" s="108"/>
       <c r="X30" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y30" s="108"/>
       <c r="Z30" s="108"/>
@@ -34038,44 +34045,44 @@
       <c r="A31" s="166"/>
       <c r="B31" s="167"/>
       <c r="C31" s="120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D31" s="121"/>
       <c r="E31" s="121"/>
       <c r="F31" s="122"/>
       <c r="G31" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H31" s="123"/>
       <c r="I31" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J31" s="123"/>
       <c r="K31" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L31" s="123"/>
       <c r="M31" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N31" s="157"/>
       <c r="O31" s="157"/>
       <c r="P31" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q31" s="157"/>
       <c r="R31" s="157"/>
       <c r="S31" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T31" s="157"/>
       <c r="U31" s="157"/>
       <c r="V31" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W31" s="157"/>
       <c r="X31" s="157" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y31" s="157"/>
       <c r="Z31" s="157"/>
@@ -34164,7 +34171,7 @@
       <c r="A33" s="166"/>
       <c r="B33" s="167"/>
       <c r="C33" s="168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D33" s="153"/>
       <c r="E33" s="153"/>
@@ -34183,7 +34190,7 @@
       <c r="R33" s="168"/>
       <c r="S33" s="168"/>
       <c r="T33" s="169" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U33" s="168"/>
       <c r="V33" s="167"/>
@@ -34225,31 +34232,31 @@
       <c r="D34" s="100"/>
       <c r="E34" s="100"/>
       <c r="F34" s="101" t="s">
+        <v>348</v>
+      </c>
+      <c r="G34" s="225" t="s">
+        <v>308</v>
+      </c>
+      <c r="H34" s="230"/>
+      <c r="I34" s="225" t="s">
         <v>349</v>
       </c>
-      <c r="G34" s="229" t="s">
-        <v>309</v>
-      </c>
-      <c r="H34" s="230"/>
-      <c r="I34" s="229" t="s">
-        <v>350</v>
-      </c>
       <c r="J34" s="230"/>
-      <c r="K34" s="225" t="s">
+      <c r="K34" s="229" t="s">
+        <v>368</v>
+      </c>
+      <c r="L34" s="226"/>
+      <c r="M34" s="229" t="s">
         <v>369</v>
       </c>
-      <c r="L34" s="226"/>
-      <c r="M34" s="225" t="s">
+      <c r="N34" s="226"/>
+      <c r="O34" s="229" t="s">
         <v>370</v>
-      </c>
-      <c r="N34" s="226"/>
-      <c r="O34" s="225" t="s">
-        <v>371</v>
       </c>
       <c r="P34" s="233"/>
       <c r="Q34" s="226"/>
-      <c r="R34" s="225" t="s">
-        <v>372</v>
+      <c r="R34" s="229" t="s">
+        <v>371</v>
       </c>
       <c r="S34" s="233"/>
       <c r="T34" s="226"/>
@@ -34290,7 +34297,7 @@
       <c r="A35" s="166"/>
       <c r="B35" s="167"/>
       <c r="C35" s="102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D35" s="103"/>
       <c r="E35" s="103"/>
@@ -34346,34 +34353,34 @@
       <c r="A36" s="166"/>
       <c r="B36" s="167"/>
       <c r="C36" s="120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" s="121"/>
       <c r="E36" s="121"/>
       <c r="F36" s="122"/>
       <c r="G36" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H36" s="123"/>
       <c r="I36" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J36" s="123"/>
       <c r="K36" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L36" s="123"/>
       <c r="M36" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N36" s="123"/>
       <c r="O36" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P36" s="123"/>
       <c r="Q36" s="123"/>
       <c r="R36" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S36" s="123"/>
       <c r="T36" s="123"/>
@@ -34414,34 +34421,34 @@
       <c r="A37" s="166"/>
       <c r="B37" s="167"/>
       <c r="C37" s="105" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D37" s="106"/>
       <c r="E37" s="106"/>
       <c r="F37" s="107"/>
       <c r="G37" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H37" s="108"/>
       <c r="I37" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J37" s="108"/>
       <c r="K37" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L37" s="108"/>
       <c r="M37" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N37" s="108"/>
       <c r="O37" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P37" s="108"/>
       <c r="Q37" s="108"/>
       <c r="R37" s="108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S37" s="108"/>
       <c r="T37" s="108"/>
@@ -34482,34 +34489,34 @@
       <c r="A38" s="166"/>
       <c r="B38" s="167"/>
       <c r="C38" s="105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D38" s="106"/>
       <c r="E38" s="106"/>
       <c r="F38" s="107"/>
       <c r="G38" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H38" s="108"/>
       <c r="I38" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J38" s="108"/>
       <c r="K38" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L38" s="108"/>
       <c r="M38" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N38" s="108"/>
       <c r="O38" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P38" s="108"/>
       <c r="Q38" s="108"/>
       <c r="R38" s="108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S38" s="108"/>
       <c r="T38" s="108"/>
@@ -34550,34 +34557,34 @@
       <c r="A39" s="166"/>
       <c r="B39" s="167"/>
       <c r="C39" s="120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D39" s="121"/>
       <c r="E39" s="121"/>
       <c r="F39" s="122"/>
       <c r="G39" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H39" s="123"/>
       <c r="I39" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J39" s="123"/>
       <c r="K39" s="123" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L39" s="123"/>
       <c r="M39" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N39" s="123"/>
       <c r="O39" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P39" s="123"/>
       <c r="Q39" s="123"/>
       <c r="R39" s="123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S39" s="123"/>
       <c r="T39" s="123"/>
@@ -34618,7 +34625,7 @@
       <c r="A40" s="172"/>
       <c r="B40" s="173"/>
       <c r="C40" s="174" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D40" s="174"/>
       <c r="E40" s="174"/>
@@ -34708,21 +34715,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -34880,24 +34872,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34913,4 +34903,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>